--- a/GUI + Reviews/202509/Europe 500.xlsx
+++ b/GUI + Reviews/202509/Europe 500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202509\20250908\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202509\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6C8F63-EF03-43E5-9DCB-52203A62AB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94CE943F-1A47-4B33-B742-3A8D704361E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="17640" xr2:uid="{AE4B4274-E9F3-43D4-ADCD-97933C9C860A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B88A4701-77FB-442C-BBBC-2FCB62503A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2825,15 +2825,6 @@
     <t>GB0031274896</t>
   </si>
   <si>
-    <t>MB-IT</t>
-  </si>
-  <si>
-    <t>MEDIOBANCA</t>
-  </si>
-  <si>
-    <t>IT0000062957</t>
-  </si>
-  <si>
     <t>MRO-GB</t>
   </si>
   <si>
@@ -3921,6 +3912,15 @@
   </si>
   <si>
     <t>GB00BWFGQN14</t>
+  </si>
+  <si>
+    <t>SSAB.B-SE</t>
+  </si>
+  <si>
+    <t>SSAB AB CLASS B</t>
+  </si>
+  <si>
+    <t>SE0000120669</t>
   </si>
   <si>
     <t>SSE-GB</t>
@@ -5073,29 +5073,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1377E994-7A67-4835-84ED-6B18A110D7DA}" name="Universe" displayName="Universe" ref="A1:T501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:T501" xr:uid="{1377E994-7A67-4835-84ED-6B18A110D7DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39776021-F17E-4613-BBB3-99EB4A2AAEBC}" name="Universe" displayName="Universe" ref="A1:T501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:T501" xr:uid="{39776021-F17E-4613-BBB3-99EB4A2AAEBC}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{AB203D4A-D357-42B0-A22E-9BE794DEBCEB}" name="Rank" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{4F0843D3-455E-48C8-A1F6-2C6476AF6ABE}" name="Ticker" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{08FD1B91-8CA4-42C0-A295-EEF899F0D331}" name="Name" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{E1AD5C19-74F7-4BBA-A3D8-4CA987B7465B}" name="ISIN" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7EEA5553-6E51-4C55-A4B8-F7FBAE98460F}" name="MIC" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{376FDA67-0ED1-40CB-BDF6-87E84571CE1E}" name="NOSH" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{80154DC3-3AF1-4A91-B817-9280169ABF6D}" name="Price (EUR) " dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{2415481F-9628-46EF-BE3D-D5F41D825B69}" name="Currency (Local)" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{C6E3721F-B57A-48C5-8451-1DB3CBD6D830}" name="12 month aver. turnover EUR" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{99B3F0BF-E373-416B-972B-D9753EC48450}" name="20 days aver. turn EUR" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{A79E3B54-AC0B-4282-BF6D-8F22E2DBD01F}" name="10 days aver. turn EUR" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{28BA1DFE-A947-4E13-826D-1B3C2B485354}" name="5 days aver. turn EUR" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{2EAAD29A-4AE4-4300-BD84-9437D13EDC8D}" name="6 month aver. turnover EUR" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{CD07D555-5ECF-4802-9330-02574D32E0A7}" name="126 days volatility" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{4633CF7D-C184-4A41-8740-D7D08F4B6E5E}" name="100 days volatility" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{EB63707F-6B6D-45EB-9FB0-20BAE545BC04}" name="100 days aver. turn EUR" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{C852F732-6D93-4BAD-A602-9745F5E657E7}" name="180 days volatility" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{D117EE76-3585-4FA0-89AB-855285724BF9}" name="3 months aver. Turnover EUR" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{33D8D0EF-16BF-446A-BC49-7A7D1EC902F3}" name="mcap" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{C74F5C02-C203-49CE-A2E3-94E25A6F65B3}" name="3 months aver. Turnover USD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D345B858-186F-4FEC-A907-77F49B1CFE7F}" name="Rank" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{48A3B247-2DB4-40AC-AD25-57702581ECC5}" name="Ticker" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{88B48C28-4D49-47DE-8F14-771FE0D0EBCC}" name="Name" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{23215228-F7B0-44C1-97BF-C2F1650E083E}" name="ISIN" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{04E96E05-5AA1-49FA-8570-D51F957D7693}" name="MIC" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{CA6EC831-4FE5-43BC-B04C-AE45237D4A54}" name="NOSH" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{BB6F011A-8633-40E4-B852-FE9953C66C6E}" name="Price (EUR) " dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{A450000E-BBA2-4E67-9CFE-F1A2C9C73ECE}" name="Currency (Local)" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{3C994D0E-0A00-4A25-9124-4EEC7303359C}" name="12 month aver. turnover EUR" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{EEF4BD12-E08F-4923-A42E-1DD58D8C772C}" name="20 days aver. turn EUR" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{B803F9AE-11CA-47DD-80CA-B2794B905722}" name="10 days aver. turn EUR" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{4D48C1D3-3B13-406E-A44A-FEB98EC48F88}" name="5 days aver. turn EUR" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{D6E86186-1072-4B98-85D8-D05388B16F24}" name="6 month aver. turnover EUR" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{41519985-5F7B-4EF7-B503-267063D65CFA}" name="126 days volatility" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{6B449716-B067-4327-882F-CA221D316E5F}" name="100 days volatility" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{375082B7-8015-4CCF-BD7A-55E673A26133}" name="100 days aver. turn EUR" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{2F79EF2D-0389-44BD-8A8C-9DBFAA7E6DAB}" name="180 days volatility" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{89F2576E-11FA-4462-9FDC-B462FABDC01C}" name="3 months aver. Turnover EUR" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{4A59EE10-3E2F-4A10-8E36-4CE7B9D1630B}" name="mcap" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{9D92F025-BB56-469D-837A-E89329909112}" name="3 months aver. Turnover USD" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5417,7 +5417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0027AD-923D-4789-ADAE-D57E5773E3A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CC201C-88C6-4A30-8A26-36AD6A95E522}">
   <dimension ref="A1:T501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -22688,48 +22688,48 @@
         <v>931</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F298" s="1">
-        <v>813279689</v>
+        <v>1267160800</v>
       </c>
       <c r="G298" s="1">
-        <v>21.51</v>
+        <v>6.8188029999999999</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I298" s="1">
-        <v>57701161.081686497</v>
+        <v>18210716.834820598</v>
       </c>
       <c r="J298" s="1">
-        <v>70178452.180714399</v>
+        <v>15650201.459219299</v>
       </c>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
       <c r="M298" s="1">
-        <v>74190754.3208929</v>
+        <v>18387924.456695799</v>
       </c>
       <c r="N298" s="1">
-        <v>34.772995000000002</v>
+        <v>50.221603000000002</v>
       </c>
       <c r="O298" s="1">
-        <v>36.799365999999999</v>
+        <v>37.565266000000001</v>
       </c>
       <c r="P298" s="1">
-        <v>80434540.372749999</v>
+        <v>15670325.4576097</v>
       </c>
       <c r="Q298" s="1">
-        <v>32.329216000000002</v>
+        <v>43.447226999999998</v>
       </c>
       <c r="R298" s="1">
-        <v>73774852.137384593</v>
+        <v>15327251.0992293</v>
       </c>
       <c r="S298" s="1">
-        <v>17493646110.389999</v>
+        <v>8640519864.5223999</v>
       </c>
       <c r="T298" s="1">
-        <v>85403838.559197202</v>
+        <v>17753491.0073172</v>
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.2">
@@ -22746,48 +22746,48 @@
         <v>934</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F299" s="1">
-        <v>1267160800</v>
+        <v>962903700</v>
       </c>
       <c r="G299" s="1">
-        <v>6.8188029999999999</v>
+        <v>55.14</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I299" s="1">
-        <v>18210716.834820598</v>
+        <v>149194607.00595799</v>
       </c>
       <c r="J299" s="1">
-        <v>15650201.459219299</v>
+        <v>82168574.788499996</v>
       </c>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
       <c r="M299" s="1">
-        <v>18387924.456695799</v>
+        <v>144582728.181831</v>
       </c>
       <c r="N299" s="1">
-        <v>50.221603000000002</v>
+        <v>31.992965999999999</v>
       </c>
       <c r="O299" s="1">
-        <v>37.565266000000001</v>
+        <v>31.332315000000001</v>
       </c>
       <c r="P299" s="1">
-        <v>15670325.4576097</v>
+        <v>131934508.190825</v>
       </c>
       <c r="Q299" s="1">
-        <v>43.447226999999998</v>
+        <v>30.664487999999999</v>
       </c>
       <c r="R299" s="1">
-        <v>15327251.0992293</v>
+        <v>106722557.193864</v>
       </c>
       <c r="S299" s="1">
-        <v>8640519864.5223999</v>
+        <v>53094510018</v>
       </c>
       <c r="T299" s="1">
-        <v>17753491.0073172</v>
+        <v>123630046.20557299</v>
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.2">
@@ -22807,45 +22807,45 @@
         <v>86</v>
       </c>
       <c r="F300" s="1">
-        <v>962903700</v>
+        <v>129242250</v>
       </c>
       <c r="G300" s="1">
-        <v>55.14</v>
+        <v>112.15</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I300" s="1">
-        <v>149194607.00595799</v>
+        <v>41782537.466403097</v>
       </c>
       <c r="J300" s="1">
-        <v>82168574.788499996</v>
+        <v>30632977.675000001</v>
       </c>
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
       <c r="M300" s="1">
-        <v>144582728.181831</v>
+        <v>42730162.2612205</v>
       </c>
       <c r="N300" s="1">
-        <v>31.992965999999999</v>
+        <v>27.501864999999999</v>
       </c>
       <c r="O300" s="1">
-        <v>31.332315000000001</v>
+        <v>27.863384</v>
       </c>
       <c r="P300" s="1">
-        <v>131934508.190825</v>
+        <v>41251668.689750001</v>
       </c>
       <c r="Q300" s="1">
-        <v>30.664487999999999</v>
+        <v>25.744705</v>
       </c>
       <c r="R300" s="1">
-        <v>106722557.193864</v>
+        <v>36278032.215151504</v>
       </c>
       <c r="S300" s="1">
-        <v>53094510018</v>
+        <v>14494518337.5</v>
       </c>
       <c r="T300" s="1">
-        <v>123630046.20557299</v>
+        <v>42046623.0232912</v>
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.2">
@@ -22862,48 +22862,48 @@
         <v>940</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F301" s="1">
-        <v>129242250</v>
+        <v>563724900</v>
       </c>
       <c r="G301" s="1">
-        <v>112.15</v>
+        <v>13.03</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I301" s="1">
-        <v>41782537.466403097</v>
+        <v>9822144.5686188303</v>
       </c>
       <c r="J301" s="1">
-        <v>30632977.675000001</v>
+        <v>10790636.264666701</v>
       </c>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
       <c r="M301" s="1">
-        <v>42730162.2612205</v>
+        <v>9752332.0561881997</v>
       </c>
       <c r="N301" s="1">
-        <v>27.501864999999999</v>
+        <v>23.703638000000002</v>
       </c>
       <c r="O301" s="1">
-        <v>27.863384</v>
+        <v>24.393984</v>
       </c>
       <c r="P301" s="1">
-        <v>41251668.689750001</v>
+        <v>9254487.6416350007</v>
       </c>
       <c r="Q301" s="1">
-        <v>25.744705</v>
+        <v>25.392627999999998</v>
       </c>
       <c r="R301" s="1">
-        <v>36278032.215151504</v>
+        <v>9241324.3784242403</v>
       </c>
       <c r="S301" s="1">
-        <v>14494518337.5</v>
+        <v>7345335447</v>
       </c>
       <c r="T301" s="1">
-        <v>42046623.0232912</v>
+        <v>10713769.874869701</v>
       </c>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.2">
@@ -22920,48 +22920,48 @@
         <v>943</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F302" s="1">
-        <v>563724900</v>
+        <v>129024230</v>
       </c>
       <c r="G302" s="1">
-        <v>13.03</v>
+        <v>53.2</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I302" s="1">
-        <v>9822144.5686188303</v>
+        <v>8003805.1238733297</v>
       </c>
       <c r="J302" s="1">
-        <v>10790636.264666701</v>
+        <v>8003805.1238733297</v>
       </c>
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
       <c r="M302" s="1">
-        <v>9752332.0561881997</v>
+        <v>8003805.1238733297</v>
       </c>
       <c r="N302" s="1">
-        <v>23.703638000000002</v>
+        <v>35.966270000000002</v>
       </c>
       <c r="O302" s="1">
-        <v>24.393984</v>
+        <v>35.966270000000002</v>
       </c>
       <c r="P302" s="1">
-        <v>9254487.6416350007</v>
+        <v>8003805.1238733297</v>
       </c>
       <c r="Q302" s="1">
-        <v>25.392627999999998</v>
+        <v>35.966270000000002</v>
       </c>
       <c r="R302" s="1">
-        <v>9241324.3784242403</v>
+        <v>8003805.1238733297</v>
       </c>
       <c r="S302" s="1">
-        <v>7345335447</v>
+        <v>6864089036</v>
       </c>
       <c r="T302" s="1">
-        <v>10713769.874869701</v>
+        <v>9279844.1322753392</v>
       </c>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.2">
@@ -22978,48 +22978,48 @@
         <v>946</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>23</v>
+        <v>514</v>
       </c>
       <c r="F303" s="1">
-        <v>129024230</v>
+        <v>828972400</v>
       </c>
       <c r="G303" s="1">
-        <v>53.2</v>
+        <v>11.265000000000001</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I303" s="1">
-        <v>8003805.1238733297</v>
+        <v>13440941.064658601</v>
       </c>
       <c r="J303" s="1">
-        <v>8003805.1238733297</v>
+        <v>10122925.0206667</v>
       </c>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
       <c r="M303" s="1">
-        <v>8003805.1238733297</v>
+        <v>13901462.68048</v>
       </c>
       <c r="N303" s="1">
-        <v>35.966270000000002</v>
+        <v>34.859054999999998</v>
       </c>
       <c r="O303" s="1">
-        <v>35.966270000000002</v>
+        <v>34.335631999999997</v>
       </c>
       <c r="P303" s="1">
-        <v>8003805.1238733297</v>
+        <v>13434727.3748</v>
       </c>
       <c r="Q303" s="1">
-        <v>35.966270000000002</v>
+        <v>34.695866000000002</v>
       </c>
       <c r="R303" s="1">
-        <v>8003805.1238733297</v>
+        <v>12453793.586562499</v>
       </c>
       <c r="S303" s="1">
-        <v>6864089036</v>
+        <v>9338374086</v>
       </c>
       <c r="T303" s="1">
-        <v>9279844.1322753392</v>
+        <v>14438671.7026869</v>
       </c>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.2">
@@ -23036,48 +23036,48 @@
         <v>949</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>514</v>
+        <v>57</v>
       </c>
       <c r="F304" s="1">
-        <v>828972400</v>
+        <v>705748786</v>
       </c>
       <c r="G304" s="1">
-        <v>11.265000000000001</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I304" s="1">
-        <v>13440941.064658601</v>
+        <v>49775160.607509799</v>
       </c>
       <c r="J304" s="1">
-        <v>10122925.0206667</v>
+        <v>30543768.786666699</v>
       </c>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
       <c r="M304" s="1">
-        <v>13901462.68048</v>
+        <v>51198341.733464502</v>
       </c>
       <c r="N304" s="1">
-        <v>34.859054999999998</v>
+        <v>24.628767</v>
       </c>
       <c r="O304" s="1">
-        <v>34.335631999999997</v>
+        <v>22.963999000000001</v>
       </c>
       <c r="P304" s="1">
-        <v>13434727.3748</v>
+        <v>44790251.224950001</v>
       </c>
       <c r="Q304" s="1">
-        <v>34.695866000000002</v>
+        <v>23.406292000000001</v>
       </c>
       <c r="R304" s="1">
-        <v>12453793.586562499</v>
+        <v>40403281.460681804</v>
       </c>
       <c r="S304" s="1">
-        <v>9338374086</v>
+        <v>22972122984.299999</v>
       </c>
       <c r="T304" s="1">
-        <v>14438671.7026869</v>
+        <v>46814975.907207102</v>
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.2">
@@ -23094,48 +23094,48 @@
         <v>952</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F305" s="1">
-        <v>705748786</v>
+        <v>274805954</v>
       </c>
       <c r="G305" s="1">
-        <v>32.549999999999997</v>
+        <v>48.12</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I305" s="1">
-        <v>49775160.607509799</v>
+        <v>55100048.532182597</v>
       </c>
       <c r="J305" s="1">
-        <v>30543768.786666699</v>
+        <v>38901005.194642797</v>
       </c>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
       <c r="M305" s="1">
-        <v>51198341.733464502</v>
+        <v>48786214.126587301</v>
       </c>
       <c r="N305" s="1">
-        <v>24.628767</v>
+        <v>30.406849999999999</v>
       </c>
       <c r="O305" s="1">
-        <v>22.963999000000001</v>
+        <v>32.22607</v>
       </c>
       <c r="P305" s="1">
-        <v>44790251.224950001</v>
+        <v>44447869.890100002</v>
       </c>
       <c r="Q305" s="1">
-        <v>23.406292000000001</v>
+        <v>32.292884999999998</v>
       </c>
       <c r="R305" s="1">
-        <v>40403281.460681804</v>
+        <v>41274754.024846204</v>
       </c>
       <c r="S305" s="1">
-        <v>22972122984.299999</v>
+        <v>13223662506.48</v>
       </c>
       <c r="T305" s="1">
-        <v>46814975.907207102</v>
+        <v>47863092.889573</v>
       </c>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.2">
@@ -23152,48 +23152,48 @@
         <v>955</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F306" s="1">
-        <v>274805954</v>
+        <v>441412540</v>
       </c>
       <c r="G306" s="1">
-        <v>48.12</v>
+        <v>12.389950000000001</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I306" s="1">
-        <v>55100048.532182597</v>
+        <v>15168398.586332001</v>
       </c>
       <c r="J306" s="1">
-        <v>38901005.194642797</v>
+        <v>14479015.6116053</v>
       </c>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
       <c r="M306" s="1">
-        <v>48786214.126587301</v>
+        <v>14202535.8093527</v>
       </c>
       <c r="N306" s="1">
-        <v>30.406849999999999</v>
+        <v>32.663173999999998</v>
       </c>
       <c r="O306" s="1">
-        <v>32.22607</v>
+        <v>33.514107000000003</v>
       </c>
       <c r="P306" s="1">
-        <v>44447869.890100002</v>
+        <v>13514491.7446026</v>
       </c>
       <c r="Q306" s="1">
-        <v>32.292884999999998</v>
+        <v>30.615347</v>
       </c>
       <c r="R306" s="1">
-        <v>41274754.024846204</v>
+        <v>12970592.4420284</v>
       </c>
       <c r="S306" s="1">
-        <v>13223662506.48</v>
+        <v>5469079299.9730005</v>
       </c>
       <c r="T306" s="1">
-        <v>47863092.889573</v>
+        <v>15028935.3080176</v>
       </c>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.2">
@@ -23210,48 +23210,48 @@
         <v>958</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F307" s="1">
-        <v>441412540</v>
+        <v>517111091</v>
       </c>
       <c r="G307" s="1">
-        <v>12.389950000000001</v>
+        <v>17.565449999999998</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="I307" s="1">
-        <v>15168398.586332001</v>
+        <v>16047293.3329807</v>
       </c>
       <c r="J307" s="1">
-        <v>14479015.6116053</v>
+        <v>10144270.553944699</v>
       </c>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
       <c r="M307" s="1">
-        <v>14202535.8093527</v>
+        <v>16837432.5483968</v>
       </c>
       <c r="N307" s="1">
-        <v>32.663173999999998</v>
+        <v>22.835812000000001</v>
       </c>
       <c r="O307" s="1">
-        <v>33.514107000000003</v>
+        <v>23.426082999999998</v>
       </c>
       <c r="P307" s="1">
-        <v>13514491.7446026</v>
+        <v>15600116.809435001</v>
       </c>
       <c r="Q307" s="1">
-        <v>30.615347</v>
+        <v>22.163558999999999</v>
       </c>
       <c r="R307" s="1">
-        <v>12970592.4420284</v>
+        <v>13591694.5856783</v>
       </c>
       <c r="S307" s="1">
-        <v>5469079299.9730005</v>
+        <v>9083289013.4059486</v>
       </c>
       <c r="T307" s="1">
-        <v>15028935.3080176</v>
+        <v>15705854.638425101</v>
       </c>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.2">
@@ -23268,48 +23268,48 @@
         <v>961</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="F308" s="1">
-        <v>517111091</v>
+        <v>53824490</v>
       </c>
       <c r="G308" s="1">
-        <v>17.565449999999998</v>
+        <v>381.5</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I308" s="1">
-        <v>16047293.3329807</v>
+        <v>44000849.705533601</v>
       </c>
       <c r="J308" s="1">
-        <v>10144270.553944699</v>
+        <v>35340652.336666703</v>
       </c>
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
       <c r="M308" s="1">
-        <v>16837432.5483968</v>
+        <v>53315262.805905499</v>
       </c>
       <c r="N308" s="1">
-        <v>22.835812000000001</v>
+        <v>37.329666000000003</v>
       </c>
       <c r="O308" s="1">
-        <v>23.426082999999998</v>
+        <v>35.39808</v>
       </c>
       <c r="P308" s="1">
-        <v>15600116.809435001</v>
+        <v>50215986.203500003</v>
       </c>
       <c r="Q308" s="1">
-        <v>22.163558999999999</v>
+        <v>34.705863999999998</v>
       </c>
       <c r="R308" s="1">
-        <v>13591694.5856783</v>
+        <v>46911200.612121202</v>
       </c>
       <c r="S308" s="1">
-        <v>9083289013.4059486</v>
+        <v>20534042935</v>
       </c>
       <c r="T308" s="1">
-        <v>15705854.638425101</v>
+        <v>54352174.498530701</v>
       </c>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.2">
@@ -23329,45 +23329,45 @@
         <v>86</v>
       </c>
       <c r="F309" s="1">
-        <v>53824490</v>
+        <v>130645070</v>
       </c>
       <c r="G309" s="1">
-        <v>381.5</v>
+        <v>555</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I309" s="1">
-        <v>44000849.705533601</v>
+        <v>139262601.47628501</v>
       </c>
       <c r="J309" s="1">
-        <v>35340652.336666703</v>
+        <v>141147398.086667</v>
       </c>
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
       <c r="M309" s="1">
-        <v>53315262.805905499</v>
+        <v>157293038.26535401</v>
       </c>
       <c r="N309" s="1">
-        <v>37.329666000000003</v>
+        <v>28.918832999999999</v>
       </c>
       <c r="O309" s="1">
-        <v>35.39808</v>
+        <v>30.37574</v>
       </c>
       <c r="P309" s="1">
-        <v>50215986.203500003</v>
+        <v>157046022.55700001</v>
       </c>
       <c r="Q309" s="1">
-        <v>34.705863999999998</v>
+        <v>27.525366000000002</v>
       </c>
       <c r="R309" s="1">
-        <v>46911200.612121202</v>
+        <v>133411195.469697</v>
       </c>
       <c r="S309" s="1">
-        <v>20534042935</v>
+        <v>72508013850</v>
       </c>
       <c r="T309" s="1">
-        <v>54352174.498530701</v>
+        <v>154395802.25057399</v>
       </c>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.2">
@@ -23384,48 +23384,48 @@
         <v>967</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="F310" s="1">
-        <v>130645070</v>
+        <v>4961230000</v>
       </c>
       <c r="G310" s="1">
-        <v>555</v>
+        <v>12.10718</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I310" s="1">
-        <v>139262601.47628501</v>
+        <v>92452759.439423501</v>
       </c>
       <c r="J310" s="1">
-        <v>141147398.086667</v>
+        <v>59266497.002453797</v>
       </c>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
       <c r="M310" s="1">
-        <v>157293038.26535401</v>
+        <v>100233544.482366</v>
       </c>
       <c r="N310" s="1">
-        <v>28.918832999999999</v>
+        <v>23.653952</v>
       </c>
       <c r="O310" s="1">
-        <v>30.37574</v>
+        <v>23.534351000000001</v>
       </c>
       <c r="P310" s="1">
-        <v>157046022.55700001</v>
+        <v>101052277.76986299</v>
       </c>
       <c r="Q310" s="1">
-        <v>27.525366000000002</v>
+        <v>21.466377000000001</v>
       </c>
       <c r="R310" s="1">
-        <v>133411195.469697</v>
+        <v>92768195.538277507</v>
       </c>
       <c r="S310" s="1">
-        <v>72508013850</v>
+        <v>60066504631.400002</v>
       </c>
       <c r="T310" s="1">
-        <v>154395802.25057399</v>
+        <v>107454107.05249199</v>
       </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.2">
@@ -23442,48 +23442,48 @@
         <v>970</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F311" s="1">
-        <v>4961230000</v>
+        <v>969613830</v>
       </c>
       <c r="G311" s="1">
-        <v>12.10718</v>
+        <v>27.34</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I311" s="1">
-        <v>92452759.439423501</v>
+        <v>9088588.6462352909</v>
       </c>
       <c r="J311" s="1">
-        <v>59266497.002453797</v>
+        <v>21752751.014666699</v>
       </c>
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
       <c r="M311" s="1">
-        <v>100233544.482366</v>
+        <v>11022398.8107087</v>
       </c>
       <c r="N311" s="1">
-        <v>23.653952</v>
+        <v>20.024673</v>
       </c>
       <c r="O311" s="1">
-        <v>23.534351000000001</v>
+        <v>21.663772999999999</v>
       </c>
       <c r="P311" s="1">
-        <v>101052277.76986299</v>
+        <v>11484363.15</v>
       </c>
       <c r="Q311" s="1">
-        <v>21.466377000000001</v>
+        <v>20.091103</v>
       </c>
       <c r="R311" s="1">
-        <v>92768195.538277507</v>
+        <v>12779013.3387879</v>
       </c>
       <c r="S311" s="1">
-        <v>60066504631.400002</v>
+        <v>26509242112.200001</v>
       </c>
       <c r="T311" s="1">
-        <v>107454107.05249199</v>
+        <v>14812330.6477054</v>
       </c>
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.2">
@@ -23500,48 +23500,48 @@
         <v>973</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F312" s="1">
-        <v>969613830</v>
+        <v>8075237300</v>
       </c>
       <c r="G312" s="1">
-        <v>27.34</v>
+        <v>6.4910209999999999</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I312" s="1">
-        <v>9088588.6462352909</v>
+        <v>89327442.458770499</v>
       </c>
       <c r="J312" s="1">
-        <v>21752751.014666699</v>
+        <v>69822910.834799305</v>
       </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
       <c r="M312" s="1">
-        <v>11022398.8107087</v>
+        <v>105879466.368101</v>
       </c>
       <c r="N312" s="1">
-        <v>20.024673</v>
+        <v>29.956675000000001</v>
       </c>
       <c r="O312" s="1">
-        <v>21.663772999999999</v>
+        <v>29.396183000000001</v>
       </c>
       <c r="P312" s="1">
-        <v>11484363.15</v>
+        <v>97076902.089670196</v>
       </c>
       <c r="Q312" s="1">
-        <v>20.091103</v>
+        <v>28.794574999999998</v>
       </c>
       <c r="R312" s="1">
-        <v>12779013.3387879</v>
+        <v>84483115.7921336</v>
       </c>
       <c r="S312" s="1">
-        <v>26509242112.200001</v>
+        <v>52416534894.283302</v>
       </c>
       <c r="T312" s="1">
-        <v>14812330.6477054</v>
+        <v>97865818.222225994</v>
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.2">
@@ -23558,48 +23558,48 @@
         <v>976</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F313" s="1">
-        <v>8075237300</v>
+        <v>115500000</v>
       </c>
       <c r="G313" s="1">
-        <v>6.4910209999999999</v>
+        <v>118.3</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I313" s="1">
-        <v>89327442.458770499</v>
+        <v>12787679.7525692</v>
       </c>
       <c r="J313" s="1">
-        <v>69822910.834799305</v>
+        <v>16177209.346666699</v>
       </c>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
       <c r="M313" s="1">
-        <v>105879466.368101</v>
+        <v>16142732.246063</v>
       </c>
       <c r="N313" s="1">
-        <v>29.956675000000001</v>
+        <v>35.527979999999999</v>
       </c>
       <c r="O313" s="1">
-        <v>29.396183000000001</v>
+        <v>34.665950000000002</v>
       </c>
       <c r="P313" s="1">
-        <v>97076902.089670196</v>
+        <v>14478028.756999999</v>
       </c>
       <c r="Q313" s="1">
-        <v>28.794574999999998</v>
+        <v>34.687159999999999</v>
       </c>
       <c r="R313" s="1">
-        <v>84483115.7921336</v>
+        <v>14683571.967424201</v>
       </c>
       <c r="S313" s="1">
-        <v>52416534894.283302</v>
+        <v>13663650000</v>
       </c>
       <c r="T313" s="1">
-        <v>97865818.222225994</v>
+        <v>17021165.022001401</v>
       </c>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.2">
@@ -23616,48 +23616,48 @@
         <v>979</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>86</v>
+        <v>514</v>
       </c>
       <c r="F314" s="1">
-        <v>115500000</v>
+        <v>769211060</v>
       </c>
       <c r="G314" s="1">
-        <v>118.3</v>
+        <v>15.824999999999999</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I314" s="1">
-        <v>12787679.7525692</v>
+        <v>27434287.8493574</v>
       </c>
       <c r="J314" s="1">
-        <v>16177209.346666699</v>
+        <v>17414177.5886667</v>
       </c>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
       <c r="M314" s="1">
-        <v>16142732.246063</v>
+        <v>24555288.353999998</v>
       </c>
       <c r="N314" s="1">
-        <v>35.527979999999999</v>
+        <v>47.495204999999999</v>
       </c>
       <c r="O314" s="1">
-        <v>34.665950000000002</v>
+        <v>49.302320000000002</v>
       </c>
       <c r="P314" s="1">
-        <v>14478028.756999999</v>
+        <v>24055758.938499998</v>
       </c>
       <c r="Q314" s="1">
-        <v>34.687159999999999</v>
+        <v>47.674239999999998</v>
       </c>
       <c r="R314" s="1">
-        <v>14683571.967424201</v>
+        <v>24020209.023906302</v>
       </c>
       <c r="S314" s="1">
-        <v>13663650000</v>
+        <v>12172765024.5</v>
       </c>
       <c r="T314" s="1">
-        <v>17021165.022001401</v>
+        <v>27756129.474284202</v>
       </c>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.2">
@@ -23674,48 +23674,48 @@
         <v>982</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>514</v>
+        <v>49</v>
       </c>
       <c r="F315" s="1">
-        <v>769211060</v>
+        <v>2576520000</v>
       </c>
       <c r="G315" s="1">
-        <v>15.824999999999999</v>
+        <v>80.233699999999999</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I315" s="1">
-        <v>27434287.8493574</v>
+        <v>374422023.987441</v>
       </c>
       <c r="J315" s="1">
-        <v>17414177.5886667</v>
+        <v>226935289.78284901</v>
       </c>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
       <c r="M315" s="1">
-        <v>24555288.353999998</v>
+        <v>358698534.87302399</v>
       </c>
       <c r="N315" s="1">
-        <v>47.495204999999999</v>
+        <v>20.121618000000002</v>
       </c>
       <c r="O315" s="1">
-        <v>49.302320000000002</v>
+        <v>19.116299000000001</v>
       </c>
       <c r="P315" s="1">
-        <v>24055758.938499998</v>
+        <v>332341954.23420203</v>
       </c>
       <c r="Q315" s="1">
-        <v>47.674239999999998</v>
+        <v>19.810037999999999</v>
       </c>
       <c r="R315" s="1">
-        <v>24020209.023906302</v>
+        <v>283750950.15250802</v>
       </c>
       <c r="S315" s="1">
-        <v>12172765024.5</v>
+        <v>206723732724</v>
       </c>
       <c r="T315" s="1">
-        <v>27756129.474284202</v>
+        <v>328952407.30896097</v>
       </c>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.2">
@@ -23732,48 +23732,48 @@
         <v>985</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F316" s="1">
-        <v>2576520000</v>
+        <v>43744779</v>
       </c>
       <c r="G316" s="1">
-        <v>80.233699999999999</v>
+        <v>137</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I316" s="1">
-        <v>374422023.987441</v>
+        <v>15082910.8053921</v>
       </c>
       <c r="J316" s="1">
-        <v>226935289.78284901</v>
+        <v>12994256.836666699</v>
       </c>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
       <c r="M316" s="1">
-        <v>358698534.87302399</v>
+        <v>12754532.814370099</v>
       </c>
       <c r="N316" s="1">
-        <v>20.121618000000002</v>
+        <v>40.638644999999997</v>
       </c>
       <c r="O316" s="1">
-        <v>19.116299000000001</v>
+        <v>38.093739999999997</v>
       </c>
       <c r="P316" s="1">
-        <v>332341954.23420203</v>
+        <v>11821604.89325</v>
       </c>
       <c r="Q316" s="1">
-        <v>19.810037999999999</v>
+        <v>40.466994999999997</v>
       </c>
       <c r="R316" s="1">
-        <v>283750950.15250802</v>
+        <v>11479960.9393939</v>
       </c>
       <c r="S316" s="1">
-        <v>206723732724</v>
+        <v>5993034723</v>
       </c>
       <c r="T316" s="1">
-        <v>328952407.30896097</v>
+        <v>13311342.6887423</v>
       </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.2">
@@ -23790,48 +23790,48 @@
         <v>988</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F317" s="1">
-        <v>43744779</v>
+        <v>1230192275</v>
       </c>
       <c r="G317" s="1">
-        <v>137</v>
+        <v>5.5940000000000003</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I317" s="1">
-        <v>15082910.8053921</v>
+        <v>30135806.176301599</v>
       </c>
       <c r="J317" s="1">
-        <v>12994256.836666699</v>
+        <v>29563901.275857199</v>
       </c>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
       <c r="M317" s="1">
-        <v>12754532.814370099</v>
+        <v>35251838.7937897</v>
       </c>
       <c r="N317" s="1">
-        <v>40.638644999999997</v>
+        <v>37.197895000000003</v>
       </c>
       <c r="O317" s="1">
-        <v>38.093739999999997</v>
+        <v>36.090040000000002</v>
       </c>
       <c r="P317" s="1">
-        <v>11821604.89325</v>
+        <v>33898306.701399997</v>
       </c>
       <c r="Q317" s="1">
-        <v>40.466994999999997</v>
+        <v>35.696033</v>
       </c>
       <c r="R317" s="1">
-        <v>11479960.9393939</v>
+        <v>31010358.2981923</v>
       </c>
       <c r="S317" s="1">
-        <v>5993034723</v>
+        <v>6881695586.3500004</v>
       </c>
       <c r="T317" s="1">
-        <v>13311342.6887423</v>
+        <v>35887844.538022898</v>
       </c>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.2">
@@ -23848,48 +23848,48 @@
         <v>991</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F318" s="1">
-        <v>1230192275</v>
+        <v>122656610</v>
       </c>
       <c r="G318" s="1">
-        <v>5.5940000000000003</v>
+        <v>141.15430000000001</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I318" s="1">
-        <v>30135806.176301599</v>
+        <v>26890163.6478865</v>
       </c>
       <c r="J318" s="1">
-        <v>29563901.275857199</v>
+        <v>24978922.5880257</v>
       </c>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
       <c r="M318" s="1">
-        <v>35251838.7937897</v>
+        <v>29173664.900128499</v>
       </c>
       <c r="N318" s="1">
-        <v>37.197895000000003</v>
+        <v>25.302005999999999</v>
       </c>
       <c r="O318" s="1">
-        <v>36.090040000000002</v>
+        <v>21.490100000000002</v>
       </c>
       <c r="P318" s="1">
-        <v>33898306.701399997</v>
+        <v>29236886.3354473</v>
       </c>
       <c r="Q318" s="1">
-        <v>35.696033</v>
+        <v>24.4818</v>
       </c>
       <c r="R318" s="1">
-        <v>31010358.2981923</v>
+        <v>23755803.8583395</v>
       </c>
       <c r="S318" s="1">
-        <v>6881695586.3500004</v>
+        <v>17313507924.923</v>
       </c>
       <c r="T318" s="1">
-        <v>35887844.538022898</v>
+        <v>27517075.191823699</v>
       </c>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.2">
@@ -23906,48 +23906,48 @@
         <v>994</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F319" s="1">
-        <v>122656610</v>
+        <v>1782936200</v>
       </c>
       <c r="G319" s="1">
-        <v>141.15430000000001</v>
+        <v>4.1344719999999997</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I319" s="1">
-        <v>26890163.6478865</v>
+        <v>27289354.255309399</v>
       </c>
       <c r="J319" s="1">
-        <v>24978922.5880257</v>
+        <v>20564454.737220399</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
       <c r="M319" s="1">
-        <v>29173664.900128499</v>
+        <v>24913993.5693051</v>
       </c>
       <c r="N319" s="1">
-        <v>25.302005999999999</v>
+        <v>41.869404000000003</v>
       </c>
       <c r="O319" s="1">
-        <v>21.490100000000002</v>
+        <v>42.164023999999998</v>
       </c>
       <c r="P319" s="1">
-        <v>29236886.3354473</v>
+        <v>23252802.375617001</v>
       </c>
       <c r="Q319" s="1">
-        <v>24.4818</v>
+        <v>41.754375000000003</v>
       </c>
       <c r="R319" s="1">
-        <v>23755803.8583395</v>
+        <v>19767734.530323699</v>
       </c>
       <c r="S319" s="1">
-        <v>17313507924.923</v>
+        <v>7371499796.6863995</v>
       </c>
       <c r="T319" s="1">
-        <v>27517075.191823699</v>
+        <v>22916670.934192002</v>
       </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.2">
@@ -23964,48 +23964,48 @@
         <v>997</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="F320" s="1">
-        <v>1782936200</v>
+        <v>53720043</v>
       </c>
       <c r="G320" s="1">
-        <v>4.1344719999999997</v>
+        <v>81.851089999999999</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="I320" s="1">
-        <v>27289354.255309399</v>
+        <v>11257367.4852357</v>
       </c>
       <c r="J320" s="1">
-        <v>20564454.737220399</v>
+        <v>10391871.419774201</v>
       </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
       <c r="M320" s="1">
-        <v>24913993.5693051</v>
+        <v>11135852.533173701</v>
       </c>
       <c r="N320" s="1">
-        <v>41.869404000000003</v>
+        <v>40.299847</v>
       </c>
       <c r="O320" s="1">
-        <v>42.164023999999998</v>
+        <v>38.612946000000001</v>
       </c>
       <c r="P320" s="1">
-        <v>23252802.375617001</v>
+        <v>10342809.054063199</v>
       </c>
       <c r="Q320" s="1">
-        <v>41.754375000000003</v>
+        <v>36.804589999999997</v>
       </c>
       <c r="R320" s="1">
-        <v>19767734.530323699</v>
+        <v>9618546.4353752695</v>
       </c>
       <c r="S320" s="1">
-        <v>7371499796.6863995</v>
+        <v>4397044074.3968697</v>
       </c>
       <c r="T320" s="1">
-        <v>22916670.934192002</v>
+        <v>11123741.678951699</v>
       </c>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.2">
@@ -24022,48 +24022,48 @@
         <v>1000</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="F321" s="1">
-        <v>53720043</v>
+        <v>269000000</v>
       </c>
       <c r="G321" s="1">
-        <v>81.851089999999999</v>
+        <v>61.26</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I321" s="1">
-        <v>11257367.4852357</v>
+        <v>38192957.349058799</v>
       </c>
       <c r="J321" s="1">
-        <v>10391871.419774201</v>
+        <v>41438679.650666602</v>
       </c>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
       <c r="M321" s="1">
-        <v>11135852.533173701</v>
+        <v>44223183.082637802</v>
       </c>
       <c r="N321" s="1">
-        <v>40.299847</v>
+        <v>21.369520000000001</v>
       </c>
       <c r="O321" s="1">
-        <v>38.612946000000001</v>
+        <v>22.646076000000001</v>
       </c>
       <c r="P321" s="1">
-        <v>10342809.054063199</v>
+        <v>42934948.386150002</v>
       </c>
       <c r="Q321" s="1">
-        <v>36.804589999999997</v>
+        <v>19.850159999999999</v>
       </c>
       <c r="R321" s="1">
-        <v>9618546.4353752695</v>
+        <v>38355423.335757598</v>
       </c>
       <c r="S321" s="1">
-        <v>4397044074.3968697</v>
+        <v>16478940000</v>
       </c>
       <c r="T321" s="1">
-        <v>11123741.678951699</v>
+        <v>44350720.992025897</v>
       </c>
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.2">
@@ -24080,48 +24080,48 @@
         <v>1003</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>38</v>
+        <v>514</v>
       </c>
       <c r="F322" s="1">
-        <v>269000000</v>
+        <v>5455850600</v>
       </c>
       <c r="G322" s="1">
-        <v>61.26</v>
+        <v>3.6850000000000001</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I322" s="1">
-        <v>38192957.349058799</v>
+        <v>49005705.890763</v>
       </c>
       <c r="J322" s="1">
-        <v>41438679.650666602</v>
+        <v>27375156.3166667</v>
       </c>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
       <c r="M322" s="1">
-        <v>44223183.082637802</v>
+        <v>47336400.501359999</v>
       </c>
       <c r="N322" s="1">
-        <v>21.369520000000001</v>
+        <v>32.840805000000003</v>
       </c>
       <c r="O322" s="1">
-        <v>22.646076000000001</v>
+        <v>34.083786000000003</v>
       </c>
       <c r="P322" s="1">
-        <v>42934948.386150002</v>
+        <v>42702291.124600001</v>
       </c>
       <c r="Q322" s="1">
-        <v>19.850159999999999</v>
+        <v>31.180069</v>
       </c>
       <c r="R322" s="1">
-        <v>38355423.335757598</v>
+        <v>36314200.2520312</v>
       </c>
       <c r="S322" s="1">
-        <v>16478940000</v>
+        <v>20104809461</v>
       </c>
       <c r="T322" s="1">
-        <v>44350720.992025897</v>
+        <v>42071837.471473202</v>
       </c>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.2">
@@ -24141,45 +24141,45 @@
         <v>514</v>
       </c>
       <c r="F323" s="1">
-        <v>5455850600</v>
+        <v>3457827600</v>
       </c>
       <c r="G323" s="1">
-        <v>3.6850000000000001</v>
+        <v>13.494999999999999</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I323" s="1">
-        <v>49005705.890763</v>
+        <v>66073185.626064301</v>
       </c>
       <c r="J323" s="1">
-        <v>27375156.3166667</v>
+        <v>42661654.788000003</v>
       </c>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
       <c r="M323" s="1">
-        <v>47336400.501359999</v>
+        <v>71333923.892800003</v>
       </c>
       <c r="N323" s="1">
-        <v>32.840805000000003</v>
+        <v>26.276709</v>
       </c>
       <c r="O323" s="1">
-        <v>34.083786000000003</v>
+        <v>24.430572999999999</v>
       </c>
       <c r="P323" s="1">
-        <v>42702291.124600001</v>
+        <v>63496802.776199996</v>
       </c>
       <c r="Q323" s="1">
-        <v>31.180069</v>
+        <v>24.114606999999999</v>
       </c>
       <c r="R323" s="1">
-        <v>36314200.2520312</v>
+        <v>53569150.360624999</v>
       </c>
       <c r="S323" s="1">
-        <v>20104809461</v>
+        <v>46663383462</v>
       </c>
       <c r="T323" s="1">
-        <v>42071837.471473202</v>
+        <v>62020590.907568298</v>
       </c>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.2">
@@ -24196,48 +24196,48 @@
         <v>1009</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>514</v>
+        <v>33</v>
       </c>
       <c r="F324" s="1">
-        <v>3457827600</v>
+        <v>250181400</v>
       </c>
       <c r="G324" s="1">
-        <v>13.494999999999999</v>
+        <v>25.331050000000001</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I324" s="1">
-        <v>66073185.626064301</v>
+        <v>6357844.82528158</v>
       </c>
       <c r="J324" s="1">
-        <v>42661654.788000003</v>
+        <v>3601674.1057412298</v>
       </c>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
       <c r="M324" s="1">
-        <v>71333923.892800003</v>
+        <v>6580999.8447328303</v>
       </c>
       <c r="N324" s="1">
-        <v>26.276709</v>
+        <v>28.732752000000001</v>
       </c>
       <c r="O324" s="1">
-        <v>24.430572999999999</v>
+        <v>29.010597000000001</v>
       </c>
       <c r="P324" s="1">
-        <v>63496802.776199996</v>
+        <v>6524456.41906182</v>
       </c>
       <c r="Q324" s="1">
-        <v>24.114606999999999</v>
+        <v>29.439432</v>
       </c>
       <c r="R324" s="1">
-        <v>53569150.360624999</v>
+        <v>6099884.8282052102</v>
       </c>
       <c r="S324" s="1">
-        <v>46663383462</v>
+        <v>6337357552.4700003</v>
       </c>
       <c r="T324" s="1">
-        <v>62020590.907568298</v>
+        <v>7055138.3806134397</v>
       </c>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.2">
@@ -24254,48 +24254,48 @@
         <v>1012</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="F325" s="1">
-        <v>250181400</v>
+        <v>1978489136</v>
       </c>
       <c r="G325" s="1">
-        <v>25.331050000000001</v>
+        <v>5.5869999999999997</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I325" s="1">
-        <v>6357844.82528158</v>
+        <v>22494002.289675198</v>
       </c>
       <c r="J325" s="1">
-        <v>3601674.1057412298</v>
+        <v>15799998.803583199</v>
       </c>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
       <c r="M325" s="1">
-        <v>6580999.8447328303</v>
+        <v>21949993.933024801</v>
       </c>
       <c r="N325" s="1">
-        <v>28.732752000000001</v>
+        <v>29.731328999999999</v>
       </c>
       <c r="O325" s="1">
-        <v>29.010597000000001</v>
+        <v>25.611141</v>
       </c>
       <c r="P325" s="1">
-        <v>6524456.41906182</v>
+        <v>20272036.254476801</v>
       </c>
       <c r="Q325" s="1">
-        <v>29.439432</v>
+        <v>28.191991999999999</v>
       </c>
       <c r="R325" s="1">
-        <v>6099884.8282052102</v>
+        <v>18581602.7347783</v>
       </c>
       <c r="S325" s="1">
-        <v>6337357552.4700003</v>
+        <v>11053818802.831999</v>
       </c>
       <c r="T325" s="1">
-        <v>7055138.3806134397</v>
+        <v>21528680.312321901</v>
       </c>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.2">
@@ -24312,48 +24312,48 @@
         <v>1015</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="F326" s="1">
-        <v>1978489136</v>
+        <v>2112421900</v>
       </c>
       <c r="G326" s="1">
-        <v>5.5869999999999997</v>
+        <v>108.554</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I326" s="1">
-        <v>22494002.289675198</v>
+        <v>343063922.231749</v>
       </c>
       <c r="J326" s="1">
-        <v>15799998.803583199</v>
+        <v>296252645.81089598</v>
       </c>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
       <c r="M326" s="1">
-        <v>21949993.933024801</v>
+        <v>360354788.15511203</v>
       </c>
       <c r="N326" s="1">
-        <v>29.731328999999999</v>
+        <v>23.909500000000001</v>
       </c>
       <c r="O326" s="1">
-        <v>25.611141</v>
+        <v>23.340745999999999</v>
       </c>
       <c r="P326" s="1">
-        <v>20272036.254476801</v>
+        <v>335666127.09509599</v>
       </c>
       <c r="Q326" s="1">
-        <v>28.191991999999999</v>
+        <v>21.868454</v>
       </c>
       <c r="R326" s="1">
-        <v>18581602.7347783</v>
+        <v>300555331.82421702</v>
       </c>
       <c r="S326" s="1">
-        <v>11053818802.831999</v>
+        <v>229311846932.60001</v>
       </c>
       <c r="T326" s="1">
-        <v>21528680.312321901</v>
+        <v>348227737.66700101</v>
       </c>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.2">
@@ -24370,48 +24370,48 @@
         <v>1018</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="F327" s="1">
-        <v>2112421900</v>
+        <v>3390128000</v>
       </c>
       <c r="G327" s="1">
-        <v>108.554</v>
+        <v>48.748950000000001</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="I327" s="1">
-        <v>343063922.231749</v>
+        <v>347811836.49052697</v>
       </c>
       <c r="J327" s="1">
-        <v>296252645.81089598</v>
+        <v>411244389.03816998</v>
       </c>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
       <c r="M327" s="1">
-        <v>360354788.15511203</v>
+        <v>357061490.84320498</v>
       </c>
       <c r="N327" s="1">
-        <v>23.909500000000001</v>
+        <v>55.972439999999999</v>
       </c>
       <c r="O327" s="1">
-        <v>23.340745999999999</v>
+        <v>58.21208</v>
       </c>
       <c r="P327" s="1">
-        <v>335666127.09509599</v>
+        <v>351636878.63171899</v>
       </c>
       <c r="Q327" s="1">
-        <v>21.868454</v>
+        <v>57.239277000000001</v>
       </c>
       <c r="R327" s="1">
-        <v>300555331.82421702</v>
+        <v>352523171.08099502</v>
       </c>
       <c r="S327" s="1">
-        <v>229311846932.60001</v>
+        <v>165265180365.60001</v>
       </c>
       <c r="T327" s="1">
-        <v>348227737.66700101</v>
+        <v>407874254.42242301</v>
       </c>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.2">
@@ -24431,45 +24431,45 @@
         <v>138</v>
       </c>
       <c r="F328" s="1">
-        <v>3390128000</v>
+        <v>414555050</v>
       </c>
       <c r="G328" s="1">
-        <v>48.748950000000001</v>
+        <v>53.705559999999998</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>139</v>
       </c>
       <c r="I328" s="1">
-        <v>347811836.49052697</v>
+        <v>32041923.158673</v>
       </c>
       <c r="J328" s="1">
-        <v>411244389.03816998</v>
+        <v>29419309.964435499</v>
       </c>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
       <c r="M328" s="1">
-        <v>357061490.84320498</v>
+        <v>32630399.501842801</v>
       </c>
       <c r="N328" s="1">
-        <v>55.972439999999999</v>
+        <v>27.285498</v>
       </c>
       <c r="O328" s="1">
-        <v>58.21208</v>
+        <v>25.858685999999999</v>
       </c>
       <c r="P328" s="1">
-        <v>351636878.63171899</v>
+        <v>30538271.799624201</v>
       </c>
       <c r="Q328" s="1">
-        <v>57.239277000000001</v>
+        <v>24.682465000000001</v>
       </c>
       <c r="R328" s="1">
-        <v>352523171.08099502</v>
+        <v>29164402.8610503</v>
       </c>
       <c r="S328" s="1">
-        <v>165265180365.60001</v>
+        <v>22263911111.077999</v>
       </c>
       <c r="T328" s="1">
-        <v>407874254.42242301</v>
+        <v>33765463.833649598</v>
       </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.2">
@@ -24486,48 +24486,48 @@
         <v>1024</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F329" s="1">
-        <v>414555050</v>
+        <v>327272740</v>
       </c>
       <c r="G329" s="1">
-        <v>53.705559999999998</v>
+        <v>49.06</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I329" s="1">
-        <v>32041923.158673</v>
+        <v>18257170.7751383</v>
       </c>
       <c r="J329" s="1">
-        <v>29419309.964435499</v>
+        <v>15886075.5573333</v>
       </c>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
       <c r="M329" s="1">
-        <v>32630399.501842801</v>
+        <v>22488699.226535399</v>
       </c>
       <c r="N329" s="1">
-        <v>27.285498</v>
+        <v>26.317654000000001</v>
       </c>
       <c r="O329" s="1">
-        <v>25.858685999999999</v>
+        <v>28.604019999999998</v>
       </c>
       <c r="P329" s="1">
-        <v>30538271.799624201</v>
+        <v>19573709.918699998</v>
       </c>
       <c r="Q329" s="1">
-        <v>24.682465000000001</v>
+        <v>24.773005999999999</v>
       </c>
       <c r="R329" s="1">
-        <v>29164402.8610503</v>
+        <v>18087815.931818198</v>
       </c>
       <c r="S329" s="1">
-        <v>22263911111.077999</v>
+        <v>16056000624.400002</v>
       </c>
       <c r="T329" s="1">
-        <v>33765463.833649598</v>
+        <v>20901422.802175701</v>
       </c>
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.2">
@@ -24544,48 +24544,48 @@
         <v>1027</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="F330" s="1">
-        <v>327272740</v>
+        <v>2660056599</v>
       </c>
       <c r="G330" s="1">
-        <v>49.06</v>
+        <v>14.48</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I330" s="1">
-        <v>18257170.7751383</v>
+        <v>76879133.709533304</v>
       </c>
       <c r="J330" s="1">
-        <v>15886075.5573333</v>
+        <v>60559559.2396667</v>
       </c>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
       <c r="M330" s="1">
-        <v>22488699.226535399</v>
+        <v>86416182.567086697</v>
       </c>
       <c r="N330" s="1">
-        <v>26.317654000000001</v>
+        <v>18.052624000000002</v>
       </c>
       <c r="O330" s="1">
-        <v>28.604019999999998</v>
+        <v>19.359843999999999</v>
       </c>
       <c r="P330" s="1">
-        <v>19573709.918699998</v>
+        <v>81902250.875725001</v>
       </c>
       <c r="Q330" s="1">
-        <v>24.773005999999999</v>
+        <v>16.464375</v>
       </c>
       <c r="R330" s="1">
-        <v>18087815.931818198</v>
+        <v>66815837.344962202</v>
       </c>
       <c r="S330" s="1">
-        <v>16056000624.400002</v>
+        <v>38517619553.520004</v>
       </c>
       <c r="T330" s="1">
-        <v>20901422.802175701</v>
+        <v>77419324.149826095</v>
       </c>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.2">
@@ -24602,48 +24602,48 @@
         <v>1030</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>57</v>
+        <v>514</v>
       </c>
       <c r="F331" s="1">
-        <v>2660056599</v>
+        <v>109162500</v>
       </c>
       <c r="G331" s="1">
-        <v>14.48</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I331" s="1">
-        <v>76879133.709533304</v>
+        <v>11492621.151405601</v>
       </c>
       <c r="J331" s="1">
-        <v>60559559.2396667</v>
+        <v>11109915.002</v>
       </c>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
       <c r="M331" s="1">
-        <v>86416182.567086697</v>
+        <v>13742889.14752</v>
       </c>
       <c r="N331" s="1">
-        <v>18.052624000000002</v>
+        <v>32.761330000000001</v>
       </c>
       <c r="O331" s="1">
-        <v>19.359843999999999</v>
+        <v>32.467086999999999</v>
       </c>
       <c r="P331" s="1">
-        <v>81902250.875725001</v>
+        <v>13845998.956900001</v>
       </c>
       <c r="Q331" s="1">
-        <v>16.464375</v>
+        <v>30.486979000000002</v>
       </c>
       <c r="R331" s="1">
-        <v>66815837.344962202</v>
+        <v>13573954.772812501</v>
       </c>
       <c r="S331" s="1">
-        <v>38517619553.520004</v>
+        <v>7570419374.999999</v>
       </c>
       <c r="T331" s="1">
-        <v>77419324.149826095</v>
+        <v>15705349.649743799</v>
       </c>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.2">
@@ -24660,48 +24660,48 @@
         <v>1033</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>514</v>
+        <v>124</v>
       </c>
       <c r="F332" s="1">
-        <v>109162500</v>
+        <v>1001430970</v>
       </c>
       <c r="G332" s="1">
-        <v>69.349999999999994</v>
+        <v>9.7161530000000003</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I332" s="1">
-        <v>11492621.151405601</v>
+        <v>10369818.2627075</v>
       </c>
       <c r="J332" s="1">
-        <v>11109915.002</v>
+        <v>6837612.0114059104</v>
       </c>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
       <c r="M332" s="1">
-        <v>13742889.14752</v>
+        <v>12044785.8247189</v>
       </c>
       <c r="N332" s="1">
-        <v>32.761330000000001</v>
+        <v>21.947765</v>
       </c>
       <c r="O332" s="1">
-        <v>32.467086999999999</v>
+        <v>23.592354</v>
       </c>
       <c r="P332" s="1">
-        <v>13845998.956900001</v>
+        <v>11755927.8177855</v>
       </c>
       <c r="Q332" s="1">
-        <v>30.486979000000002</v>
+        <v>21.292994</v>
       </c>
       <c r="R332" s="1">
-        <v>13573954.772812501</v>
+        <v>9705816.7804751396</v>
       </c>
       <c r="S332" s="1">
-        <v>7570419374.999999</v>
+        <v>9730056523.4584103</v>
       </c>
       <c r="T332" s="1">
-        <v>15705349.649743799</v>
+        <v>11225639.8393947</v>
       </c>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.2">
@@ -24718,48 +24718,48 @@
         <v>1036</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F333" s="1">
-        <v>1001430970</v>
+        <v>420381070</v>
       </c>
       <c r="G333" s="1">
-        <v>9.7161530000000003</v>
+        <v>28.681370000000001</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I333" s="1">
-        <v>10369818.2627075</v>
+        <v>25832017.385102201</v>
       </c>
       <c r="J333" s="1">
-        <v>6837612.0114059104</v>
+        <v>29782845.404889502</v>
       </c>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
       <c r="M333" s="1">
-        <v>12044785.8247189</v>
+        <v>22454341.223042302</v>
       </c>
       <c r="N333" s="1">
-        <v>21.947765</v>
+        <v>59.133136999999998</v>
       </c>
       <c r="O333" s="1">
-        <v>23.592354</v>
+        <v>64.925224</v>
       </c>
       <c r="P333" s="1">
-        <v>11755927.8177855</v>
+        <v>22436719.548183799</v>
       </c>
       <c r="Q333" s="1">
-        <v>21.292994</v>
+        <v>55.305363</v>
       </c>
       <c r="R333" s="1">
-        <v>9705816.7804751396</v>
+        <v>21180607.366915401</v>
       </c>
       <c r="S333" s="1">
-        <v>9730056523.4584103</v>
+        <v>12057105009.665901</v>
       </c>
       <c r="T333" s="1">
-        <v>11225639.8393947</v>
+        <v>24547043.5084165</v>
       </c>
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.2">
@@ -24779,45 +24779,45 @@
         <v>138</v>
       </c>
       <c r="F334" s="1">
-        <v>420381070</v>
+        <v>79000000</v>
       </c>
       <c r="G334" s="1">
-        <v>28.681370000000001</v>
+        <v>122.1738</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>139</v>
       </c>
       <c r="I334" s="1">
-        <v>25832017.385102201</v>
+        <v>29381373.6876796</v>
       </c>
       <c r="J334" s="1">
-        <v>29782845.404889502</v>
+        <v>35635350.158104204</v>
       </c>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
       <c r="M334" s="1">
-        <v>22454341.223042302</v>
+        <v>29410031.541793101</v>
       </c>
       <c r="N334" s="1">
-        <v>59.133136999999998</v>
+        <v>46.029358000000002</v>
       </c>
       <c r="O334" s="1">
-        <v>64.925224</v>
+        <v>49.522297000000002</v>
       </c>
       <c r="P334" s="1">
-        <v>22436719.548183799</v>
+        <v>28841653.505022299</v>
       </c>
       <c r="Q334" s="1">
-        <v>55.305363</v>
+        <v>41.055107</v>
       </c>
       <c r="R334" s="1">
-        <v>21180607.366915401</v>
+        <v>26180789.428953301</v>
       </c>
       <c r="S334" s="1">
-        <v>12057105009.665901</v>
+        <v>9651730200</v>
       </c>
       <c r="T334" s="1">
-        <v>24547043.5084165</v>
+        <v>30359422.6715023</v>
       </c>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.2">
@@ -24834,48 +24834,48 @@
         <v>1042</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="F335" s="1">
-        <v>79000000</v>
+        <v>26700000</v>
       </c>
       <c r="G335" s="1">
-        <v>122.1738</v>
+        <v>1205.741</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="I335" s="1">
-        <v>29381373.6876796</v>
+        <v>73396002.852576703</v>
       </c>
       <c r="J335" s="1">
-        <v>35635350.158104204</v>
+        <v>41609245.857616402</v>
       </c>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
       <c r="M335" s="1">
-        <v>29410031.541793101</v>
+        <v>78352065.293947101</v>
       </c>
       <c r="N335" s="1">
-        <v>46.029358000000002</v>
+        <v>35.372813999999998</v>
       </c>
       <c r="O335" s="1">
-        <v>49.522297000000002</v>
+        <v>35.820709999999998</v>
       </c>
       <c r="P335" s="1">
-        <v>28841653.505022299</v>
+        <v>75022440.302469105</v>
       </c>
       <c r="Q335" s="1">
-        <v>41.055107</v>
+        <v>31.905574999999999</v>
       </c>
       <c r="R335" s="1">
-        <v>26180789.428953301</v>
+        <v>61925782.159709401</v>
       </c>
       <c r="S335" s="1">
-        <v>9651730200</v>
+        <v>32193284700</v>
       </c>
       <c r="T335" s="1">
-        <v>30359422.6715023</v>
+        <v>71703150.256612301</v>
       </c>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.2">
@@ -24892,48 +24892,48 @@
         <v>1045</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F336" s="1">
-        <v>26700000</v>
+        <v>646496500</v>
       </c>
       <c r="G336" s="1">
-        <v>1205.741</v>
+        <v>12.68427</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I336" s="1">
-        <v>73396002.852576703</v>
+        <v>17513477.092020199</v>
       </c>
       <c r="J336" s="1">
-        <v>41609245.857616402</v>
+        <v>16799660.153049499</v>
       </c>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
       <c r="M336" s="1">
-        <v>78352065.293947101</v>
+        <v>20586800.632359099</v>
       </c>
       <c r="N336" s="1">
-        <v>35.372813999999998</v>
+        <v>24.071933999999999</v>
       </c>
       <c r="O336" s="1">
-        <v>35.820709999999998</v>
+        <v>22.797201000000001</v>
       </c>
       <c r="P336" s="1">
-        <v>75022440.302469105</v>
+        <v>19652403.649635799</v>
       </c>
       <c r="Q336" s="1">
-        <v>31.905574999999999</v>
+        <v>22.005293000000002</v>
       </c>
       <c r="R336" s="1">
-        <v>61925782.159709401</v>
+        <v>18755644.8151046</v>
       </c>
       <c r="S336" s="1">
-        <v>32193284700</v>
+        <v>8200336160.0549994</v>
       </c>
       <c r="T336" s="1">
-        <v>71703150.256612301</v>
+        <v>21703538.3133775</v>
       </c>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.2">
@@ -24950,48 +24950,48 @@
         <v>1048</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F337" s="1">
-        <v>646496500</v>
+        <v>252269195</v>
       </c>
       <c r="G337" s="1">
-        <v>12.68427</v>
+        <v>101.85</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I337" s="1">
-        <v>17513477.092020199</v>
+        <v>60434996.078843102</v>
       </c>
       <c r="J337" s="1">
-        <v>16799660.153049499</v>
+        <v>39608850.029333301</v>
       </c>
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
       <c r="M337" s="1">
-        <v>20586800.632359099</v>
+        <v>54213064.094960697</v>
       </c>
       <c r="N337" s="1">
-        <v>24.071933999999999</v>
+        <v>28.249865</v>
       </c>
       <c r="O337" s="1">
-        <v>22.797201000000001</v>
+        <v>28.606763999999998</v>
       </c>
       <c r="P337" s="1">
-        <v>19652403.649635799</v>
+        <v>50253909.647100002</v>
       </c>
       <c r="Q337" s="1">
-        <v>22.005293000000002</v>
+        <v>28.490435000000002</v>
       </c>
       <c r="R337" s="1">
-        <v>18755644.8151046</v>
+        <v>49293825.702424198</v>
       </c>
       <c r="S337" s="1">
-        <v>8200336160.0549994</v>
+        <v>25693617510.75</v>
       </c>
       <c r="T337" s="1">
-        <v>21703538.3133775</v>
+        <v>57158033.284069501</v>
       </c>
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.2">
@@ -25008,48 +25008,48 @@
         <v>1051</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F338" s="1">
-        <v>252269195</v>
+        <v>320318700</v>
       </c>
       <c r="G338" s="1">
-        <v>101.85</v>
+        <v>13.02474</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I338" s="1">
-        <v>60434996.078843102</v>
+        <v>17093089.677021202</v>
       </c>
       <c r="J338" s="1">
-        <v>39608850.029333301</v>
+        <v>13910722.7886854</v>
       </c>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
       <c r="M338" s="1">
-        <v>54213064.094960697</v>
+        <v>18398983.380265702</v>
       </c>
       <c r="N338" s="1">
-        <v>28.249865</v>
+        <v>29.790835999999999</v>
       </c>
       <c r="O338" s="1">
-        <v>28.606763999999998</v>
+        <v>29.462336000000001</v>
       </c>
       <c r="P338" s="1">
-        <v>50253909.647100002</v>
+        <v>15038211.0353141</v>
       </c>
       <c r="Q338" s="1">
-        <v>28.490435000000002</v>
+        <v>29.777723000000002</v>
       </c>
       <c r="R338" s="1">
-        <v>49293825.702424198</v>
+        <v>14421712.3880901</v>
       </c>
       <c r="S338" s="1">
-        <v>25693617510.75</v>
+        <v>4172067784.638</v>
       </c>
       <c r="T338" s="1">
-        <v>57158033.284069501</v>
+        <v>16728919.494671</v>
       </c>
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.2">
@@ -25066,48 +25066,48 @@
         <v>1054</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F339" s="1">
-        <v>320318700</v>
+        <v>962920132</v>
       </c>
       <c r="G339" s="1">
-        <v>13.02474</v>
+        <v>24.07</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I339" s="1">
-        <v>17093089.677021202</v>
+        <v>43060751.827450998</v>
       </c>
       <c r="J339" s="1">
-        <v>13910722.7886854</v>
+        <v>25516996.3433333</v>
       </c>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
       <c r="M339" s="1">
-        <v>18398983.380265702</v>
+        <v>41785188.231259897</v>
       </c>
       <c r="N339" s="1">
-        <v>29.790835999999999</v>
+        <v>28.779661000000001</v>
       </c>
       <c r="O339" s="1">
-        <v>29.462336000000001</v>
+        <v>30.556533999999999</v>
       </c>
       <c r="P339" s="1">
-        <v>15038211.0353141</v>
+        <v>40053294.640649997</v>
       </c>
       <c r="Q339" s="1">
-        <v>29.777723000000002</v>
+        <v>29.247146999999998</v>
       </c>
       <c r="R339" s="1">
-        <v>14421712.3880901</v>
+        <v>35822181.874772698</v>
       </c>
       <c r="S339" s="1">
-        <v>4172067784.638</v>
+        <v>23177487577.240002</v>
       </c>
       <c r="T339" s="1">
-        <v>16728919.494671</v>
+        <v>41433807.703863703</v>
       </c>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.2">
@@ -25124,48 +25124,48 @@
         <v>1057</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F340" s="1">
-        <v>962920132</v>
+        <v>1003710700</v>
       </c>
       <c r="G340" s="1">
-        <v>24.07</v>
+        <v>8.0156720000000004</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I340" s="1">
-        <v>43060751.827450998</v>
+        <v>15568303.447256399</v>
       </c>
       <c r="J340" s="1">
-        <v>25516996.3433333</v>
+        <v>12788555.2688324</v>
       </c>
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
       <c r="M340" s="1">
-        <v>41785188.231259897</v>
+        <v>19282688.831007201</v>
       </c>
       <c r="N340" s="1">
-        <v>28.779661000000001</v>
+        <v>25.814028</v>
       </c>
       <c r="O340" s="1">
-        <v>30.556533999999999</v>
+        <v>22.760646999999999</v>
       </c>
       <c r="P340" s="1">
-        <v>40053294.640649997</v>
+        <v>17136890.1065914</v>
       </c>
       <c r="Q340" s="1">
-        <v>29.247146999999998</v>
+        <v>23.845583000000001</v>
       </c>
       <c r="R340" s="1">
-        <v>35822181.874772698</v>
+        <v>15609401.652805701</v>
       </c>
       <c r="S340" s="1">
-        <v>23177487577.240002</v>
+        <v>8045415754.0904007</v>
       </c>
       <c r="T340" s="1">
-        <v>41433807.703863703</v>
+        <v>18067371.794156201</v>
       </c>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.2">
@@ -25182,48 +25182,48 @@
         <v>1060</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F341" s="1">
-        <v>1003710700</v>
+        <v>455500000</v>
       </c>
       <c r="G341" s="1">
-        <v>8.0156720000000004</v>
+        <v>46.99</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I341" s="1">
-        <v>15568303.447256399</v>
+        <v>42138644.3106324</v>
       </c>
       <c r="J341" s="1">
-        <v>12788555.2688324</v>
+        <v>21622009.629000001</v>
       </c>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
       <c r="M341" s="1">
-        <v>19282688.831007201</v>
+        <v>42138129.019921198</v>
       </c>
       <c r="N341" s="1">
-        <v>25.814028</v>
+        <v>34.641922000000001</v>
       </c>
       <c r="O341" s="1">
-        <v>22.760646999999999</v>
+        <v>34.0501</v>
       </c>
       <c r="P341" s="1">
-        <v>17136890.1065914</v>
+        <v>37003365.521349996</v>
       </c>
       <c r="Q341" s="1">
-        <v>23.845583000000001</v>
+        <v>33.421078000000001</v>
       </c>
       <c r="R341" s="1">
-        <v>15609401.652805701</v>
+        <v>32388590.5597727</v>
       </c>
       <c r="S341" s="1">
-        <v>8045415754.0904007</v>
+        <v>21403945000</v>
       </c>
       <c r="T341" s="1">
-        <v>18067371.794156201</v>
+        <v>37538988.867894799</v>
       </c>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.2">
@@ -25243,45 +25243,45 @@
         <v>86</v>
       </c>
       <c r="F342" s="1">
-        <v>455500000</v>
+        <v>153124980</v>
       </c>
       <c r="G342" s="1">
-        <v>46.99</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I342" s="1">
-        <v>42138644.3106324</v>
+        <v>25865823.870434798</v>
       </c>
       <c r="J342" s="1">
-        <v>21622009.629000001</v>
+        <v>16490104.8166667</v>
       </c>
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
       <c r="M342" s="1">
-        <v>42138129.019921198</v>
+        <v>24586344.7074803</v>
       </c>
       <c r="N342" s="1">
-        <v>34.641922000000001</v>
+        <v>24.947759999999999</v>
       </c>
       <c r="O342" s="1">
-        <v>34.0501</v>
+        <v>22.694597000000002</v>
       </c>
       <c r="P342" s="1">
-        <v>37003365.521349996</v>
+        <v>21749823.411049999</v>
       </c>
       <c r="Q342" s="1">
-        <v>33.421078000000001</v>
+        <v>23.690605000000001</v>
       </c>
       <c r="R342" s="1">
-        <v>32388590.5597727</v>
+        <v>18486401.2688636</v>
       </c>
       <c r="S342" s="1">
-        <v>21403945000</v>
+        <v>5783530494.6000004</v>
       </c>
       <c r="T342" s="1">
-        <v>37538988.867894799</v>
+        <v>21411932.945366099</v>
       </c>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.2">
@@ -25298,48 +25298,48 @@
         <v>1066</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="F343" s="1">
-        <v>153124980</v>
+        <v>1306110000</v>
       </c>
       <c r="G343" s="1">
-        <v>37.770000000000003</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I343" s="1">
-        <v>25865823.870434798</v>
+        <v>32406848.228829399</v>
       </c>
       <c r="J343" s="1">
-        <v>16490104.8166667</v>
+        <v>28944667.3125</v>
       </c>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
       <c r="M343" s="1">
-        <v>24586344.7074803</v>
+        <v>40935883.626428597</v>
       </c>
       <c r="N343" s="1">
-        <v>24.947759999999999</v>
+        <v>19.936968</v>
       </c>
       <c r="O343" s="1">
-        <v>22.694597000000002</v>
+        <v>21.158259999999999</v>
       </c>
       <c r="P343" s="1">
-        <v>21749823.411049999</v>
+        <v>40520999.746775001</v>
       </c>
       <c r="Q343" s="1">
-        <v>23.690605000000001</v>
+        <v>18.131498000000001</v>
       </c>
       <c r="R343" s="1">
-        <v>18486401.2688636</v>
+        <v>36650513.932999998</v>
       </c>
       <c r="S343" s="1">
-        <v>5783530494.6000004</v>
+        <v>26553216299.999996</v>
       </c>
       <c r="T343" s="1">
-        <v>21411932.945366099</v>
+        <v>42398607.458770096</v>
       </c>
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.2">
@@ -25356,48 +25356,48 @@
         <v>1069</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F344" s="1">
-        <v>1306110000</v>
+        <v>2378947836</v>
       </c>
       <c r="G344" s="1">
-        <v>20.329999999999998</v>
+        <v>53.61</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I344" s="1">
-        <v>32406848.228829399</v>
+        <v>127976841.991892</v>
       </c>
       <c r="J344" s="1">
-        <v>28944667.3125</v>
+        <v>92464813.674666703</v>
       </c>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
       <c r="M344" s="1">
-        <v>40935883.626428597</v>
+        <v>134936629.21116099</v>
       </c>
       <c r="N344" s="1">
-        <v>19.936968</v>
+        <v>32.324770000000001</v>
       </c>
       <c r="O344" s="1">
-        <v>21.158259999999999</v>
+        <v>32.023609999999998</v>
       </c>
       <c r="P344" s="1">
-        <v>40520999.746775001</v>
+        <v>122545715.73735</v>
       </c>
       <c r="Q344" s="1">
-        <v>18.131498000000001</v>
+        <v>33.220820000000003</v>
       </c>
       <c r="R344" s="1">
-        <v>36650513.932999998</v>
+        <v>112890787.934811</v>
       </c>
       <c r="S344" s="1">
-        <v>26553216299.999996</v>
+        <v>127535393487.95999</v>
       </c>
       <c r="T344" s="1">
-        <v>42398607.458770096</v>
+        <v>130633195.20674101</v>
       </c>
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.2">
@@ -25414,48 +25414,48 @@
         <v>1072</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F345" s="1">
-        <v>2378947836</v>
+        <v>2573157200</v>
       </c>
       <c r="G345" s="1">
-        <v>53.61</v>
+        <v>11.52779</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I345" s="1">
-        <v>127976841.991892</v>
+        <v>45754871.279067896</v>
       </c>
       <c r="J345" s="1">
-        <v>92464813.674666703</v>
+        <v>32958748.751913801</v>
       </c>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
       <c r="M345" s="1">
-        <v>134936629.21116099</v>
+        <v>44686872.807002597</v>
       </c>
       <c r="N345" s="1">
-        <v>32.324770000000001</v>
+        <v>25.648228</v>
       </c>
       <c r="O345" s="1">
-        <v>32.023609999999998</v>
+        <v>25.356618999999998</v>
       </c>
       <c r="P345" s="1">
-        <v>122545715.73735</v>
+        <v>41351119.786778703</v>
       </c>
       <c r="Q345" s="1">
-        <v>33.220820000000003</v>
+        <v>26.641408999999999</v>
       </c>
       <c r="R345" s="1">
-        <v>112890787.934811</v>
+        <v>38506038.420303203</v>
       </c>
       <c r="S345" s="1">
-        <v>127535393487.95999</v>
+        <v>29662815838.587997</v>
       </c>
       <c r="T345" s="1">
-        <v>130633195.20674101</v>
+        <v>44610858.2847078</v>
       </c>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.2">
@@ -25472,48 +25472,48 @@
         <v>1075</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F346" s="1">
-        <v>2573157200</v>
+        <v>296356578</v>
       </c>
       <c r="G346" s="1">
-        <v>11.52779</v>
+        <v>75.5</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I346" s="1">
-        <v>45754871.279067896</v>
+        <v>67881894.765099198</v>
       </c>
       <c r="J346" s="1">
-        <v>32958748.751913801</v>
+        <v>66786753.935714297</v>
       </c>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
       <c r="M346" s="1">
-        <v>44686872.807002597</v>
+        <v>80944964.461468294</v>
       </c>
       <c r="N346" s="1">
-        <v>25.648228</v>
+        <v>46.804606999999997</v>
       </c>
       <c r="O346" s="1">
-        <v>25.356618999999998</v>
+        <v>41.504032000000002</v>
       </c>
       <c r="P346" s="1">
-        <v>41351119.786778703</v>
+        <v>72450360.030949995</v>
       </c>
       <c r="Q346" s="1">
-        <v>26.641408999999999</v>
+        <v>43.877105999999998</v>
       </c>
       <c r="R346" s="1">
-        <v>38506038.420303203</v>
+        <v>65473339.641692303</v>
       </c>
       <c r="S346" s="1">
-        <v>29662815838.587997</v>
+        <v>22374921639</v>
       </c>
       <c r="T346" s="1">
-        <v>44610858.2847078</v>
+        <v>75808453.485912502</v>
       </c>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.2">
@@ -25530,48 +25530,48 @@
         <v>1078</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F347" s="1">
-        <v>296356578</v>
+        <v>45867893</v>
       </c>
       <c r="G347" s="1">
-        <v>75.5</v>
+        <v>142.0273</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I347" s="1">
-        <v>67881894.765099198</v>
+        <v>12119137.938490599</v>
       </c>
       <c r="J347" s="1">
-        <v>66786753.935714297</v>
+        <v>11044232.8979376</v>
       </c>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
       <c r="M347" s="1">
-        <v>80944964.461468294</v>
+        <v>13968539.808215501</v>
       </c>
       <c r="N347" s="1">
-        <v>46.804606999999997</v>
+        <v>17.454775000000001</v>
       </c>
       <c r="O347" s="1">
-        <v>41.504032000000002</v>
+        <v>17.633993</v>
       </c>
       <c r="P347" s="1">
-        <v>72450360.030949995</v>
+        <v>14016390.694504101</v>
       </c>
       <c r="Q347" s="1">
-        <v>43.877105999999998</v>
+        <v>15.729946999999999</v>
       </c>
       <c r="R347" s="1">
-        <v>65473339.641692303</v>
+        <v>11407552.6624073</v>
       </c>
       <c r="S347" s="1">
-        <v>22374921639</v>
+        <v>6514492999.4789</v>
       </c>
       <c r="T347" s="1">
-        <v>75808453.485912502</v>
+        <v>13226379.732591501</v>
       </c>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.2">
@@ -25588,48 +25588,48 @@
         <v>1081</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F348" s="1">
-        <v>45867893</v>
+        <v>254311860</v>
       </c>
       <c r="G348" s="1">
-        <v>142.0273</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I348" s="1">
-        <v>12119137.938490599</v>
+        <v>51924574.545254901</v>
       </c>
       <c r="J348" s="1">
-        <v>11044232.8979376</v>
+        <v>55889687.126000002</v>
       </c>
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
       <c r="M348" s="1">
-        <v>13968539.808215501</v>
+        <v>62025323.669684999</v>
       </c>
       <c r="N348" s="1">
-        <v>17.454775000000001</v>
+        <v>31.776150000000001</v>
       </c>
       <c r="O348" s="1">
-        <v>17.633993</v>
+        <v>32.139409999999998</v>
       </c>
       <c r="P348" s="1">
-        <v>14016390.694504101</v>
+        <v>60227912.412900001</v>
       </c>
       <c r="Q348" s="1">
-        <v>15.729946999999999</v>
+        <v>28.691987999999998</v>
       </c>
       <c r="R348" s="1">
-        <v>11407552.6624073</v>
+        <v>59085666.868030302</v>
       </c>
       <c r="S348" s="1">
-        <v>6514492999.4789</v>
+        <v>20533139576.399998</v>
       </c>
       <c r="T348" s="1">
-        <v>13226379.732591501</v>
+        <v>68442906.018618807</v>
       </c>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.2">
@@ -25646,48 +25646,48 @@
         <v>1084</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F349" s="1">
-        <v>254311860</v>
+        <v>216556000</v>
       </c>
       <c r="G349" s="1">
-        <v>80.739999999999995</v>
+        <v>42.55</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I349" s="1">
-        <v>51924574.545254901</v>
+        <v>20911930.066462401</v>
       </c>
       <c r="J349" s="1">
-        <v>55889687.126000002</v>
+        <v>15752539.427999999</v>
       </c>
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
       <c r="M349" s="1">
-        <v>62025323.669684999</v>
+        <v>21021611.777125999</v>
       </c>
       <c r="N349" s="1">
-        <v>31.776150000000001</v>
+        <v>21.398641999999999</v>
       </c>
       <c r="O349" s="1">
-        <v>32.139409999999998</v>
+        <v>21.878525</v>
       </c>
       <c r="P349" s="1">
-        <v>60227912.412900001</v>
+        <v>20641124.0132</v>
       </c>
       <c r="Q349" s="1">
-        <v>28.691987999999998</v>
+        <v>21.784566999999999</v>
       </c>
       <c r="R349" s="1">
-        <v>59085666.868030302</v>
+        <v>18943480.329697002</v>
       </c>
       <c r="S349" s="1">
-        <v>20533139576.399998</v>
+        <v>9214457800</v>
       </c>
       <c r="T349" s="1">
-        <v>68442906.018618807</v>
+        <v>21905989.1094382</v>
       </c>
     </row>
     <row r="350" spans="1:20" x14ac:dyDescent="0.2">
@@ -25704,48 +25704,48 @@
         <v>1087</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="F350" s="1">
-        <v>216556000</v>
+        <v>328939640</v>
       </c>
       <c r="G350" s="1">
-        <v>42.55</v>
+        <v>30.38</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I350" s="1">
-        <v>20911930.066462401</v>
+        <v>8408160.0238735192</v>
       </c>
       <c r="J350" s="1">
-        <v>15752539.427999999</v>
+        <v>15838816.413333301</v>
       </c>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
       <c r="M350" s="1">
-        <v>21021611.777125999</v>
+        <v>10246774.776299199</v>
       </c>
       <c r="N350" s="1">
-        <v>21.398641999999999</v>
+        <v>44.054879999999997</v>
       </c>
       <c r="O350" s="1">
-        <v>21.878525</v>
+        <v>42.639125999999997</v>
       </c>
       <c r="P350" s="1">
-        <v>20641124.0132</v>
+        <v>9541144.4902999997</v>
       </c>
       <c r="Q350" s="1">
-        <v>21.784566999999999</v>
+        <v>43.493023000000001</v>
       </c>
       <c r="R350" s="1">
-        <v>18943480.329697002</v>
+        <v>8422485.2433333397</v>
       </c>
       <c r="S350" s="1">
-        <v>9214457800</v>
+        <v>9993186263.1999989</v>
       </c>
       <c r="T350" s="1">
-        <v>21905989.1094382</v>
+        <v>9767010.4820368793</v>
       </c>
     </row>
     <row r="351" spans="1:20" x14ac:dyDescent="0.2">
@@ -25762,48 +25762,48 @@
         <v>1090</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="F351" s="1">
-        <v>328939640</v>
+        <v>180869312</v>
       </c>
       <c r="G351" s="1">
-        <v>30.38</v>
+        <v>41.69</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I351" s="1">
-        <v>8408160.0238735192</v>
+        <v>16165750.795196099</v>
       </c>
       <c r="J351" s="1">
-        <v>15838816.413333301</v>
+        <v>9733553.1640000008</v>
       </c>
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
       <c r="M351" s="1">
-        <v>10246774.776299199</v>
+        <v>17723744.893267699</v>
       </c>
       <c r="N351" s="1">
-        <v>44.054879999999997</v>
+        <v>37.603023999999998</v>
       </c>
       <c r="O351" s="1">
-        <v>42.639125999999997</v>
+        <v>34.799731999999999</v>
       </c>
       <c r="P351" s="1">
-        <v>9541144.4902999997</v>
+        <v>15387724.45125</v>
       </c>
       <c r="Q351" s="1">
-        <v>43.493023000000001</v>
+        <v>34.53839</v>
       </c>
       <c r="R351" s="1">
-        <v>8422485.2433333397</v>
+        <v>14577957.1875758</v>
       </c>
       <c r="S351" s="1">
-        <v>9993186263.1999989</v>
+        <v>7540441617.2799997</v>
       </c>
       <c r="T351" s="1">
-        <v>9767010.4820368793</v>
+        <v>16903947.031666301</v>
       </c>
     </row>
     <row r="352" spans="1:20" x14ac:dyDescent="0.2">
@@ -25820,48 +25820,48 @@
         <v>1093</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F352" s="1">
-        <v>180869312</v>
+        <v>11370000</v>
       </c>
       <c r="G352" s="1">
-        <v>41.69</v>
+        <v>650.5</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I352" s="1">
-        <v>16165750.795196099</v>
+        <v>8165409.3952569198</v>
       </c>
       <c r="J352" s="1">
-        <v>9733553.1640000008</v>
+        <v>5097601.0166666703</v>
       </c>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
       <c r="M352" s="1">
-        <v>17723744.893267699</v>
+        <v>10102656.606299199</v>
       </c>
       <c r="N352" s="1">
-        <v>37.603023999999998</v>
+        <v>27.327085</v>
       </c>
       <c r="O352" s="1">
-        <v>34.799731999999999</v>
+        <v>27.277073000000001</v>
       </c>
       <c r="P352" s="1">
-        <v>15387724.45125</v>
+        <v>8285024.8375000004</v>
       </c>
       <c r="Q352" s="1">
-        <v>34.53839</v>
+        <v>25.435835000000001</v>
       </c>
       <c r="R352" s="1">
-        <v>14577957.1875758</v>
+        <v>6554332.8939393898</v>
       </c>
       <c r="S352" s="1">
-        <v>7540441617.2799997</v>
+        <v>7396185000</v>
       </c>
       <c r="T352" s="1">
-        <v>16903947.031666301</v>
+        <v>7580040.26232279</v>
       </c>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.2">
@@ -25878,48 +25878,48 @@
         <v>1096</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="F353" s="1">
-        <v>11370000</v>
+        <v>677787600</v>
       </c>
       <c r="G353" s="1">
-        <v>650.5</v>
+        <v>64.587040000000002</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I353" s="1">
-        <v>8165409.3952569198</v>
+        <v>58551782.481336497</v>
       </c>
       <c r="J353" s="1">
-        <v>5097601.0166666703</v>
+        <v>39192724.868357398</v>
       </c>
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
       <c r="M353" s="1">
-        <v>10102656.606299199</v>
+        <v>54647085.697197497</v>
       </c>
       <c r="N353" s="1">
-        <v>27.327085</v>
+        <v>25.671800000000001</v>
       </c>
       <c r="O353" s="1">
-        <v>27.277073000000001</v>
+        <v>27.119658000000001</v>
       </c>
       <c r="P353" s="1">
-        <v>8285024.8375000004</v>
+        <v>50421622.115497999</v>
       </c>
       <c r="Q353" s="1">
-        <v>25.435835000000001</v>
+        <v>22.881616999999999</v>
       </c>
       <c r="R353" s="1">
-        <v>6554332.8939393898</v>
+        <v>47127634.495288</v>
       </c>
       <c r="S353" s="1">
-        <v>7396185000</v>
+        <v>43776294832.704002</v>
       </c>
       <c r="T353" s="1">
-        <v>7580040.26232279</v>
+        <v>54588302.622951098</v>
       </c>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.2">
@@ -25936,48 +25936,48 @@
         <v>1099</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F354" s="1">
-        <v>677787600</v>
+        <v>209125156</v>
       </c>
       <c r="G354" s="1">
-        <v>64.587040000000002</v>
+        <v>52.45</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I354" s="1">
-        <v>58551782.481336497</v>
+        <v>16459074.666369</v>
       </c>
       <c r="J354" s="1">
-        <v>39192724.868357398</v>
+        <v>11263429.9167857</v>
       </c>
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
       <c r="M354" s="1">
-        <v>54647085.697197497</v>
+        <v>17723538.4244444</v>
       </c>
       <c r="N354" s="1">
-        <v>25.671800000000001</v>
+        <v>24.962906</v>
       </c>
       <c r="O354" s="1">
-        <v>27.119658000000001</v>
+        <v>26.550467000000001</v>
       </c>
       <c r="P354" s="1">
-        <v>50421622.115497999</v>
+        <v>15840113.5198</v>
       </c>
       <c r="Q354" s="1">
-        <v>22.881616999999999</v>
+        <v>24.548909999999999</v>
       </c>
       <c r="R354" s="1">
-        <v>47127634.495288</v>
+        <v>13342484.9414615</v>
       </c>
       <c r="S354" s="1">
-        <v>43776294832.704002</v>
+        <v>10968614432.200001</v>
       </c>
       <c r="T354" s="1">
-        <v>54588302.622951098</v>
+        <v>15418939.292708701</v>
       </c>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.2">
@@ -25994,48 +25994,48 @@
         <v>1102</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F355" s="1">
-        <v>209125156</v>
+        <v>541080000</v>
       </c>
       <c r="G355" s="1">
-        <v>52.45</v>
+        <v>16.71</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I355" s="1">
-        <v>16459074.666369</v>
+        <v>18731548.278985899</v>
       </c>
       <c r="J355" s="1">
-        <v>11263429.9167857</v>
+        <v>14961059.742666701</v>
       </c>
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
       <c r="M355" s="1">
-        <v>17723538.4244444</v>
+        <v>22102849.899992101</v>
       </c>
       <c r="N355" s="1">
-        <v>24.962906</v>
+        <v>20.091605999999999</v>
       </c>
       <c r="O355" s="1">
-        <v>26.550467000000001</v>
+        <v>20.632252000000001</v>
       </c>
       <c r="P355" s="1">
-        <v>15840113.5198</v>
+        <v>22937464.958790001</v>
       </c>
       <c r="Q355" s="1">
-        <v>24.548909999999999</v>
+        <v>18.722473000000001</v>
       </c>
       <c r="R355" s="1">
-        <v>13342484.9414615</v>
+        <v>21177536.730606101</v>
       </c>
       <c r="S355" s="1">
-        <v>10968614432.200001</v>
+        <v>9041446800</v>
       </c>
       <c r="T355" s="1">
-        <v>15418939.292708701</v>
+        <v>24514566.162682701</v>
       </c>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.2">
@@ -26052,48 +26052,48 @@
         <v>1105</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F356" s="1">
-        <v>541080000</v>
+        <v>1907070957</v>
       </c>
       <c r="G356" s="1">
-        <v>16.71</v>
+        <v>41.38</v>
       </c>
       <c r="H356" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I356" s="1">
-        <v>18731548.278985899</v>
+        <v>34231710.208078399</v>
       </c>
       <c r="J356" s="1">
-        <v>14961059.742666701</v>
+        <v>35837936.214666702</v>
       </c>
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
       <c r="M356" s="1">
-        <v>22102849.899992101</v>
+        <v>36809809.541023597</v>
       </c>
       <c r="N356" s="1">
-        <v>20.091605999999999</v>
+        <v>24.316144999999999</v>
       </c>
       <c r="O356" s="1">
-        <v>20.632252000000001</v>
+        <v>25.394860000000001</v>
       </c>
       <c r="P356" s="1">
-        <v>22937464.958790001</v>
+        <v>32331331.100000001</v>
       </c>
       <c r="Q356" s="1">
-        <v>18.722473000000001</v>
+        <v>21.938334000000001</v>
       </c>
       <c r="R356" s="1">
-        <v>21177536.730606101</v>
+        <v>26858232.850909099</v>
       </c>
       <c r="S356" s="1">
-        <v>9041446800</v>
+        <v>78914596200.660004</v>
       </c>
       <c r="T356" s="1">
-        <v>24514566.162682701</v>
+        <v>31147387.997515202</v>
       </c>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.2">
@@ -26110,48 +26110,48 @@
         <v>1108</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F357" s="1">
-        <v>1907070957</v>
+        <v>295722284</v>
       </c>
       <c r="G357" s="1">
-        <v>41.38</v>
+        <v>33.56</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I357" s="1">
-        <v>34231710.208078399</v>
+        <v>46358752.897686303</v>
       </c>
       <c r="J357" s="1">
-        <v>35837936.214666702</v>
+        <v>31843971.75</v>
       </c>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
       <c r="M357" s="1">
-        <v>36809809.541023597</v>
+        <v>49715785.669055097</v>
       </c>
       <c r="N357" s="1">
-        <v>24.316144999999999</v>
+        <v>40.005096000000002</v>
       </c>
       <c r="O357" s="1">
-        <v>25.394860000000001</v>
+        <v>42.000540000000001</v>
       </c>
       <c r="P357" s="1">
-        <v>32331331.100000001</v>
+        <v>47803463.443149999</v>
       </c>
       <c r="Q357" s="1">
-        <v>21.938334000000001</v>
+        <v>36.608930000000001</v>
       </c>
       <c r="R357" s="1">
-        <v>26858232.850909099</v>
+        <v>47544175.640454501</v>
       </c>
       <c r="S357" s="1">
-        <v>78914596200.660004</v>
+        <v>9924439851.0400009</v>
       </c>
       <c r="T357" s="1">
-        <v>31147387.997515202</v>
+        <v>55071119.654277101</v>
       </c>
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.2">
@@ -26168,48 +26168,48 @@
         <v>1111</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F358" s="1">
-        <v>295722284</v>
+        <v>100000000</v>
       </c>
       <c r="G358" s="1">
-        <v>33.56</v>
+        <v>58.47</v>
       </c>
       <c r="H358" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I358" s="1">
-        <v>46358752.897686303</v>
+        <v>49894233.753863603</v>
       </c>
       <c r="J358" s="1">
-        <v>31843971.75</v>
+        <v>64817656.072666697</v>
       </c>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
       <c r="M358" s="1">
-        <v>49715785.669055097</v>
+        <v>86423256.186594501</v>
       </c>
       <c r="N358" s="1">
-        <v>40.005096000000002</v>
+        <v>70.105850000000004</v>
       </c>
       <c r="O358" s="1">
-        <v>42.000540000000001</v>
+        <v>61.905467999999999</v>
       </c>
       <c r="P358" s="1">
-        <v>47803463.443149999</v>
+        <v>87952058.563525006</v>
       </c>
       <c r="Q358" s="1">
-        <v>36.608930000000001</v>
+        <v>67.903419999999997</v>
       </c>
       <c r="R358" s="1">
-        <v>47544175.640454501</v>
+        <v>94819168.625303</v>
       </c>
       <c r="S358" s="1">
-        <v>9924439851.0400009</v>
+        <v>5847000000</v>
       </c>
       <c r="T358" s="1">
-        <v>55071119.654277101</v>
+        <v>109477675.46777</v>
       </c>
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.2">
@@ -26226,48 +26226,48 @@
         <v>1114</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="F359" s="1">
-        <v>100000000</v>
+        <v>2526039800</v>
       </c>
       <c r="G359" s="1">
-        <v>58.47</v>
+        <v>4.1849999999999996</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I359" s="1">
-        <v>49894233.753863603</v>
+        <v>20624811.887242299</v>
       </c>
       <c r="J359" s="1">
-        <v>64817656.072666697</v>
+        <v>14027474.9701673</v>
       </c>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
       <c r="M359" s="1">
-        <v>86423256.186594501</v>
+        <v>18855013.179190699</v>
       </c>
       <c r="N359" s="1">
-        <v>70.105850000000004</v>
+        <v>36.259186</v>
       </c>
       <c r="O359" s="1">
-        <v>61.905467999999999</v>
+        <v>34.767646999999997</v>
       </c>
       <c r="P359" s="1">
-        <v>87952058.563525006</v>
+        <v>17368317.509311698</v>
       </c>
       <c r="Q359" s="1">
-        <v>67.903419999999997</v>
+        <v>32.985610000000001</v>
       </c>
       <c r="R359" s="1">
-        <v>94819168.625303</v>
+        <v>15801510.333014</v>
       </c>
       <c r="S359" s="1">
-        <v>5847000000</v>
+        <v>10571476562.999998</v>
       </c>
       <c r="T359" s="1">
-        <v>109477675.46777</v>
+        <v>18289224.802151799</v>
       </c>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.2">
@@ -26284,48 +26284,48 @@
         <v>1117</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F360" s="1">
-        <v>2526039800</v>
+        <v>37411428</v>
       </c>
       <c r="G360" s="1">
-        <v>4.1849999999999996</v>
+        <v>122.7</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I360" s="1">
-        <v>20624811.887242299</v>
+        <v>5904548.4980158703</v>
       </c>
       <c r="J360" s="1">
-        <v>14027474.9701673</v>
+        <v>5394846.6714285696</v>
       </c>
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
       <c r="M360" s="1">
-        <v>18855013.179190699</v>
+        <v>6712276.7158730198</v>
       </c>
       <c r="N360" s="1">
-        <v>36.259186</v>
+        <v>29.542759</v>
       </c>
       <c r="O360" s="1">
-        <v>34.767646999999997</v>
+        <v>28.224625</v>
       </c>
       <c r="P360" s="1">
-        <v>17368317.509311698</v>
+        <v>6729291.7520000003</v>
       </c>
       <c r="Q360" s="1">
-        <v>32.985610000000001</v>
+        <v>27.659786</v>
       </c>
       <c r="R360" s="1">
-        <v>15801510.333014</v>
+        <v>6519243.7184615396</v>
       </c>
       <c r="S360" s="1">
-        <v>10571476562.999998</v>
+        <v>4590382215.6000004</v>
       </c>
       <c r="T360" s="1">
-        <v>18289224.802151799</v>
+        <v>7521615.23080716</v>
       </c>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.2">
@@ -26342,48 +26342,48 @@
         <v>1120</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F361" s="1">
-        <v>37411428</v>
+        <v>1157396000</v>
       </c>
       <c r="G361" s="1">
-        <v>122.7</v>
+        <v>13.904999999999999</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I361" s="1">
-        <v>5904548.4980158703</v>
+        <v>60411554.050479598</v>
       </c>
       <c r="J361" s="1">
-        <v>5394846.6714285696</v>
+        <v>41050662.461520001</v>
       </c>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
       <c r="M361" s="1">
-        <v>6712276.7158730198</v>
+        <v>65900260.502170801</v>
       </c>
       <c r="N361" s="1">
-        <v>29.542759</v>
+        <v>25.880887999999999</v>
       </c>
       <c r="O361" s="1">
-        <v>28.224625</v>
+        <v>27.44659</v>
       </c>
       <c r="P361" s="1">
-        <v>6729291.7520000003</v>
+        <v>68579988.832439005</v>
       </c>
       <c r="Q361" s="1">
-        <v>27.659786</v>
+        <v>25.849321</v>
       </c>
       <c r="R361" s="1">
-        <v>6519243.7184615396</v>
+        <v>69688062.966406107</v>
       </c>
       <c r="S361" s="1">
-        <v>4590382215.6000004</v>
+        <v>16093591380</v>
       </c>
       <c r="T361" s="1">
-        <v>7521615.23080716</v>
+        <v>80803679.395507097</v>
       </c>
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.2">
@@ -26400,48 +26400,48 @@
         <v>1123</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F362" s="1">
-        <v>1157396000</v>
+        <v>299036619</v>
       </c>
       <c r="G362" s="1">
-        <v>13.904999999999999</v>
+        <v>28.21</v>
       </c>
       <c r="H362" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I362" s="1">
-        <v>60411554.050479598</v>
+        <v>16004400.3959412</v>
       </c>
       <c r="J362" s="1">
-        <v>41050662.461520001</v>
+        <v>13449272.869999999</v>
       </c>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
       <c r="M362" s="1">
-        <v>65900260.502170801</v>
+        <v>16771828.6038583</v>
       </c>
       <c r="N362" s="1">
-        <v>25.880887999999999</v>
+        <v>38.702793</v>
       </c>
       <c r="O362" s="1">
-        <v>27.44659</v>
+        <v>35.298369999999998</v>
       </c>
       <c r="P362" s="1">
-        <v>68579988.832439005</v>
+        <v>15414126.80875</v>
       </c>
       <c r="Q362" s="1">
-        <v>25.849321</v>
+        <v>35.264698000000003</v>
       </c>
       <c r="R362" s="1">
-        <v>69688062.966406107</v>
+        <v>14616258.907348501</v>
       </c>
       <c r="S362" s="1">
-        <v>16093591380</v>
+        <v>8435823021.9900007</v>
       </c>
       <c r="T362" s="1">
-        <v>80803679.395507097</v>
+        <v>16934424.462180801</v>
       </c>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.2">
@@ -26458,48 +26458,48 @@
         <v>1126</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F363" s="1">
-        <v>299036619</v>
+        <v>45944622</v>
       </c>
       <c r="G363" s="1">
-        <v>28.21</v>
+        <v>1622.5</v>
       </c>
       <c r="H363" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I363" s="1">
-        <v>16004400.3959412</v>
+        <v>368439544.01146197</v>
       </c>
       <c r="J363" s="1">
-        <v>13449272.869999999</v>
+        <v>474422461.10000002</v>
       </c>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
       <c r="M363" s="1">
-        <v>16771828.6038583</v>
+        <v>566611161.88976395</v>
       </c>
       <c r="N363" s="1">
-        <v>38.702793</v>
+        <v>54.657330000000002</v>
       </c>
       <c r="O363" s="1">
-        <v>35.298369999999998</v>
+        <v>49.376553000000001</v>
       </c>
       <c r="P363" s="1">
-        <v>15414126.80875</v>
+        <v>520698605.71850002</v>
       </c>
       <c r="Q363" s="1">
-        <v>35.264698000000003</v>
+        <v>53.078180000000003</v>
       </c>
       <c r="R363" s="1">
-        <v>14616258.907348501</v>
+        <v>502985614.76893902</v>
       </c>
       <c r="S363" s="1">
-        <v>8435823021.9900007</v>
+        <v>74545149195</v>
       </c>
       <c r="T363" s="1">
-        <v>16934424.462180801</v>
+        <v>582187277.87150705</v>
       </c>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.2">
@@ -26516,48 +26516,48 @@
         <v>1129</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="F364" s="1">
-        <v>45944622</v>
+        <v>773820300</v>
       </c>
       <c r="G364" s="1">
-        <v>1622.5</v>
+        <v>8.8962990000000008</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I364" s="1">
-        <v>368439544.01146197</v>
+        <v>12506847.103737701</v>
       </c>
       <c r="J364" s="1">
-        <v>474422461.10000002</v>
+        <v>10412806.1253733</v>
       </c>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
       <c r="M364" s="1">
-        <v>566611161.88976395</v>
+        <v>12716361.5670837</v>
       </c>
       <c r="N364" s="1">
-        <v>54.657330000000002</v>
+        <v>24.553941999999999</v>
       </c>
       <c r="O364" s="1">
-        <v>49.376553000000001</v>
+        <v>24.248121000000001</v>
       </c>
       <c r="P364" s="1">
-        <v>520698605.71850002</v>
+        <v>12977863.0729095</v>
       </c>
       <c r="Q364" s="1">
-        <v>53.078180000000003</v>
+        <v>23.280518000000001</v>
       </c>
       <c r="R364" s="1">
-        <v>502985614.76893902</v>
+        <v>11143710.322329599</v>
       </c>
       <c r="S364" s="1">
-        <v>74545149195</v>
+        <v>6884136761.0697002</v>
       </c>
       <c r="T364" s="1">
-        <v>582187277.87150705</v>
+        <v>12896792.7122922</v>
       </c>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.2">
@@ -26574,48 +26574,48 @@
         <v>1132</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="F365" s="1">
-        <v>773820300</v>
+        <v>25391697</v>
       </c>
       <c r="G365" s="1">
-        <v>8.8962990000000008</v>
+        <v>203.22110000000001</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="I365" s="1">
-        <v>12506847.103737701</v>
+        <v>4504542.6264628898</v>
       </c>
       <c r="J365" s="1">
-        <v>10412806.1253733</v>
+        <v>4976353.1039588898</v>
       </c>
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
       <c r="M365" s="1">
-        <v>12716361.5670837</v>
+        <v>5079244.1102513596</v>
       </c>
       <c r="N365" s="1">
-        <v>24.553941999999999</v>
+        <v>26.465987999999999</v>
       </c>
       <c r="O365" s="1">
-        <v>24.248121000000001</v>
+        <v>27.787908999999999</v>
       </c>
       <c r="P365" s="1">
-        <v>12977863.0729095</v>
+        <v>5115554.0461393902</v>
       </c>
       <c r="Q365" s="1">
-        <v>23.280518000000001</v>
+        <v>25.243690000000001</v>
       </c>
       <c r="R365" s="1">
-        <v>11143710.322329599</v>
+        <v>4984850.7207551599</v>
       </c>
       <c r="S365" s="1">
-        <v>6884136761.0697002</v>
+        <v>5160128595.2067003</v>
       </c>
       <c r="T365" s="1">
-        <v>12896792.7122922</v>
+        <v>5777735.5844822302</v>
       </c>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.2">
@@ -26632,48 +26632,48 @@
         <v>1135</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="F366" s="1">
-        <v>25391697</v>
+        <v>1254156100</v>
       </c>
       <c r="G366" s="1">
-        <v>203.22110000000001</v>
+        <v>53.103099999999998</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="I366" s="1">
-        <v>4504542.6264628898</v>
+        <v>106982687.076902</v>
       </c>
       <c r="J366" s="1">
-        <v>4976353.1039588898</v>
+        <v>68572725.341248706</v>
       </c>
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
       <c r="M366" s="1">
-        <v>5079244.1102513596</v>
+        <v>106100695.03066801</v>
       </c>
       <c r="N366" s="1">
-        <v>26.465987999999999</v>
+        <v>23.873819999999998</v>
       </c>
       <c r="O366" s="1">
-        <v>27.787908999999999</v>
+        <v>23.910879999999999</v>
       </c>
       <c r="P366" s="1">
-        <v>5115554.0461393902</v>
+        <v>102639482.720148</v>
       </c>
       <c r="Q366" s="1">
-        <v>25.243690000000001</v>
+        <v>22.366695</v>
       </c>
       <c r="R366" s="1">
-        <v>4984850.7207551599</v>
+        <v>100028416.260498</v>
       </c>
       <c r="S366" s="1">
-        <v>5160128595.2067003</v>
+        <v>66599576793.909996</v>
       </c>
       <c r="T366" s="1">
-        <v>5777735.5844822302</v>
+        <v>115799983.63827799</v>
       </c>
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.2">
@@ -26690,48 +26690,48 @@
         <v>1138</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F367" s="1">
-        <v>1254156100</v>
+        <v>702562700</v>
       </c>
       <c r="G367" s="1">
-        <v>53.103099999999998</v>
+        <v>278.41180000000003</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I367" s="1">
-        <v>106982687.076902</v>
+        <v>334633492.41530502</v>
       </c>
       <c r="J367" s="1">
-        <v>68572725.341248706</v>
+        <v>255437392.60163599</v>
       </c>
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
       <c r="M367" s="1">
-        <v>106100695.03066801</v>
+        <v>338262678.88591403</v>
       </c>
       <c r="N367" s="1">
-        <v>23.873819999999998</v>
+        <v>24.718606999999999</v>
       </c>
       <c r="O367" s="1">
-        <v>23.910879999999999</v>
+        <v>25.331423000000001</v>
       </c>
       <c r="P367" s="1">
-        <v>102639482.720148</v>
+        <v>312264470.59884602</v>
       </c>
       <c r="Q367" s="1">
-        <v>22.366695</v>
+        <v>22.807925999999998</v>
       </c>
       <c r="R367" s="1">
-        <v>100028416.260498</v>
+        <v>253898359.271725</v>
       </c>
       <c r="S367" s="1">
-        <v>66599576793.909996</v>
+        <v>195601745919.86002</v>
       </c>
       <c r="T367" s="1">
-        <v>115799983.63827799</v>
+        <v>294237448.22455901</v>
       </c>
     </row>
     <row r="368" spans="1:20" x14ac:dyDescent="0.2">
@@ -26748,48 +26748,48 @@
         <v>1141</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="F368" s="1">
-        <v>702562700</v>
+        <v>113652490</v>
       </c>
       <c r="G368" s="1">
-        <v>278.41180000000003</v>
+        <v>33.336570000000002</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="I368" s="1">
-        <v>334633492.41530502</v>
+        <v>11647954.236163501</v>
       </c>
       <c r="J368" s="1">
-        <v>255437392.60163599</v>
+        <v>10986481.8204621</v>
       </c>
       <c r="K368" s="1"/>
       <c r="L368" s="1"/>
       <c r="M368" s="1">
-        <v>338262678.88591403</v>
+        <v>11467781.844443601</v>
       </c>
       <c r="N368" s="1">
-        <v>24.718606999999999</v>
+        <v>45.062393</v>
       </c>
       <c r="O368" s="1">
-        <v>25.331423000000001</v>
+        <v>44.285305000000001</v>
       </c>
       <c r="P368" s="1">
-        <v>312264470.59884602</v>
+        <v>10536830.4288495</v>
       </c>
       <c r="Q368" s="1">
-        <v>22.807925999999998</v>
+        <v>44.423430000000003</v>
       </c>
       <c r="R368" s="1">
-        <v>253898359.271725</v>
+        <v>9427009.1699301805</v>
       </c>
       <c r="S368" s="1">
-        <v>195601745919.86002</v>
+        <v>3788784188.5593004</v>
       </c>
       <c r="T368" s="1">
-        <v>294237448.22455901</v>
+        <v>10926596.232442699</v>
       </c>
     </row>
     <row r="369" spans="1:20" x14ac:dyDescent="0.2">
@@ -26806,48 +26806,48 @@
         <v>1144</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="F369" s="1">
-        <v>113652490</v>
+        <v>8434636000</v>
       </c>
       <c r="G369" s="1">
-        <v>33.336570000000002</v>
+        <v>12.037940000000001</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="I369" s="1">
-        <v>11647954.236163501</v>
+        <v>118599103.126982</v>
       </c>
       <c r="J369" s="1">
-        <v>10986481.8204621</v>
+        <v>133180059.19738799</v>
       </c>
       <c r="K369" s="1"/>
       <c r="L369" s="1"/>
       <c r="M369" s="1">
-        <v>11467781.844443601</v>
+        <v>147044108.81871</v>
       </c>
       <c r="N369" s="1">
-        <v>45.062393</v>
+        <v>43.357365000000001</v>
       </c>
       <c r="O369" s="1">
-        <v>44.285305000000001</v>
+        <v>36.064982999999998</v>
       </c>
       <c r="P369" s="1">
-        <v>10536830.4288495</v>
+        <v>135315246.88379601</v>
       </c>
       <c r="Q369" s="1">
-        <v>44.423430000000003</v>
+        <v>38.471854999999998</v>
       </c>
       <c r="R369" s="1">
-        <v>9427009.1699301805</v>
+        <v>132193834.910558</v>
       </c>
       <c r="S369" s="1">
-        <v>3788784188.5593004</v>
+        <v>101535642089.84001</v>
       </c>
       <c r="T369" s="1">
-        <v>10926596.232442699</v>
+        <v>153086065.81165001</v>
       </c>
     </row>
     <row r="370" spans="1:20" x14ac:dyDescent="0.2">
@@ -26867,45 +26867,45 @@
         <v>23</v>
       </c>
       <c r="F370" s="1">
-        <v>8434636000</v>
+        <v>835671000</v>
       </c>
       <c r="G370" s="1">
-        <v>12.037940000000001</v>
+        <v>4.062659</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I370" s="1">
-        <v>118599103.126982</v>
+        <v>4905365.5084642395</v>
       </c>
       <c r="J370" s="1">
-        <v>133180059.19738799</v>
+        <v>5483910.4769430598</v>
       </c>
       <c r="K370" s="1"/>
       <c r="L370" s="1"/>
       <c r="M370" s="1">
-        <v>147044108.81871</v>
+        <v>5120358.0501650898</v>
       </c>
       <c r="N370" s="1">
-        <v>43.357365000000001</v>
+        <v>27.241924000000001</v>
       </c>
       <c r="O370" s="1">
-        <v>36.064982999999998</v>
+        <v>25.377939999999999</v>
       </c>
       <c r="P370" s="1">
-        <v>135315246.88379601</v>
+        <v>5035381.5712138601</v>
       </c>
       <c r="Q370" s="1">
-        <v>38.471854999999998</v>
+        <v>24.995267999999999</v>
       </c>
       <c r="R370" s="1">
-        <v>132193834.910558</v>
+        <v>5336059.9652950699</v>
       </c>
       <c r="S370" s="1">
-        <v>101535642089.84001</v>
+        <v>3395046309.1890001</v>
       </c>
       <c r="T370" s="1">
-        <v>153086065.81165001</v>
+        <v>6177608.07190511</v>
       </c>
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.2">
@@ -26925,45 +26925,45 @@
         <v>23</v>
       </c>
       <c r="F371" s="1">
-        <v>835671000</v>
+        <v>474049470</v>
       </c>
       <c r="G371" s="1">
-        <v>4.062659</v>
+        <v>6.7460909999999998</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I371" s="1">
-        <v>4905365.5084642395</v>
+        <v>4908613.3586623697</v>
       </c>
       <c r="J371" s="1">
-        <v>5483910.4769430598</v>
+        <v>2340633.2788375402</v>
       </c>
       <c r="K371" s="1"/>
       <c r="L371" s="1"/>
       <c r="M371" s="1">
-        <v>5120358.0501650898</v>
+        <v>4509287.55796252</v>
       </c>
       <c r="N371" s="1">
-        <v>27.241924000000001</v>
+        <v>32.887239999999998</v>
       </c>
       <c r="O371" s="1">
-        <v>25.377939999999999</v>
+        <v>33.642380000000003</v>
       </c>
       <c r="P371" s="1">
-        <v>5035381.5712138601</v>
+        <v>4338686.3313937197</v>
       </c>
       <c r="Q371" s="1">
-        <v>24.995267999999999</v>
+        <v>30.314071999999999</v>
       </c>
       <c r="R371" s="1">
-        <v>5336059.9652950699</v>
+        <v>3490138.9037629301</v>
       </c>
       <c r="S371" s="1">
-        <v>3395046309.1890001</v>
+        <v>3197980863.1217699</v>
       </c>
       <c r="T371" s="1">
-        <v>6177608.07190511</v>
+        <v>4038436.8160792901</v>
       </c>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.2">
@@ -26980,48 +26980,48 @@
         <v>1153</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F372" s="1">
-        <v>474049470</v>
+        <v>743841200</v>
       </c>
       <c r="G372" s="1">
-        <v>6.7460909999999998</v>
+        <v>35.72</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I372" s="1">
-        <v>4908613.3586623697</v>
+        <v>76319408.489743099</v>
       </c>
       <c r="J372" s="1">
-        <v>2340633.2788375402</v>
+        <v>56032909.045999996</v>
       </c>
       <c r="K372" s="1"/>
       <c r="L372" s="1"/>
       <c r="M372" s="1">
-        <v>4509287.55796252</v>
+        <v>80776786.201850399</v>
       </c>
       <c r="N372" s="1">
-        <v>32.887239999999998</v>
+        <v>20.717089000000001</v>
       </c>
       <c r="O372" s="1">
-        <v>33.642380000000003</v>
+        <v>20.904297</v>
       </c>
       <c r="P372" s="1">
-        <v>4338686.3313937197</v>
+        <v>75614466.560900003</v>
       </c>
       <c r="Q372" s="1">
-        <v>30.314071999999999</v>
+        <v>21.433537999999999</v>
       </c>
       <c r="R372" s="1">
-        <v>3490138.9037629301</v>
+        <v>64478015.635909103</v>
       </c>
       <c r="S372" s="1">
-        <v>3197980863.1217699</v>
+        <v>26570007664</v>
       </c>
       <c r="T372" s="1">
-        <v>4038436.8160792901</v>
+        <v>74669048.104156494</v>
       </c>
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.2">
@@ -27038,48 +27038,48 @@
         <v>1156</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F373" s="1">
-        <v>743841200</v>
+        <v>1060480364</v>
       </c>
       <c r="G373" s="1">
-        <v>35.72</v>
+        <v>26.59</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I373" s="1">
-        <v>76319408.489743099</v>
+        <v>47335017.421118498</v>
       </c>
       <c r="J373" s="1">
-        <v>56032909.045999996</v>
+        <v>25801595.5039667</v>
       </c>
       <c r="K373" s="1"/>
       <c r="L373" s="1"/>
       <c r="M373" s="1">
-        <v>80776786.201850399</v>
+        <v>60651196.271591298</v>
       </c>
       <c r="N373" s="1">
-        <v>20.717089000000001</v>
+        <v>30.715050000000002</v>
       </c>
       <c r="O373" s="1">
-        <v>20.904297</v>
+        <v>29.474551999999999</v>
       </c>
       <c r="P373" s="1">
-        <v>75614466.560900003</v>
+        <v>63223452.236555003</v>
       </c>
       <c r="Q373" s="1">
-        <v>21.433537999999999</v>
+        <v>28.990780000000001</v>
       </c>
       <c r="R373" s="1">
-        <v>64478015.635909103</v>
+        <v>67944936.270527303</v>
       </c>
       <c r="S373" s="1">
-        <v>26570007664</v>
+        <v>28198172878.759998</v>
       </c>
       <c r="T373" s="1">
-        <v>74669048.104156494</v>
+        <v>78041032.3441291</v>
       </c>
     </row>
     <row r="374" spans="1:20" x14ac:dyDescent="0.2">
@@ -27096,48 +27096,48 @@
         <v>1159</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="F374" s="1">
-        <v>1060480364</v>
+        <v>533847800</v>
       </c>
       <c r="G374" s="1">
-        <v>26.59</v>
+        <v>46.515059999999998</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I374" s="1">
-        <v>47335017.421118498</v>
+        <v>92628308.062664807</v>
       </c>
       <c r="J374" s="1">
-        <v>25801595.5039667</v>
+        <v>113860203.253516</v>
       </c>
       <c r="K374" s="1"/>
       <c r="L374" s="1"/>
       <c r="M374" s="1">
-        <v>60651196.271591298</v>
+        <v>147375752.977173</v>
       </c>
       <c r="N374" s="1">
-        <v>30.715050000000002</v>
+        <v>55.620894999999997</v>
       </c>
       <c r="O374" s="1">
-        <v>29.474551999999999</v>
+        <v>55.197769999999998</v>
       </c>
       <c r="P374" s="1">
-        <v>63223452.236555003</v>
+        <v>136874327.169635</v>
       </c>
       <c r="Q374" s="1">
-        <v>28.990780000000001</v>
+        <v>54.567540000000001</v>
       </c>
       <c r="R374" s="1">
-        <v>67944936.270527303</v>
+        <v>139908637.09193999</v>
       </c>
       <c r="S374" s="1">
-        <v>28198172878.759998</v>
+        <v>24831962447.868</v>
       </c>
       <c r="T374" s="1">
-        <v>78041032.3441291</v>
+        <v>162250157.283739</v>
       </c>
     </row>
     <row r="375" spans="1:20" x14ac:dyDescent="0.2">
@@ -27154,48 +27154,48 @@
         <v>1162</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F375" s="1">
-        <v>533847800</v>
+        <v>423632587</v>
       </c>
       <c r="G375" s="1">
-        <v>46.515059999999998</v>
+        <v>290.5</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I375" s="1">
-        <v>92628308.062664807</v>
+        <v>143356828.23745099</v>
       </c>
       <c r="J375" s="1">
-        <v>113860203.253516</v>
+        <v>101959386.583333</v>
       </c>
       <c r="K375" s="1"/>
       <c r="L375" s="1"/>
       <c r="M375" s="1">
-        <v>147375752.977173</v>
+        <v>157206054.781299</v>
       </c>
       <c r="N375" s="1">
-        <v>55.620894999999997</v>
+        <v>32.631252000000003</v>
       </c>
       <c r="O375" s="1">
-        <v>55.197769999999998</v>
+        <v>32.640853999999997</v>
       </c>
       <c r="P375" s="1">
-        <v>136874327.169635</v>
+        <v>148940106.38975</v>
       </c>
       <c r="Q375" s="1">
-        <v>54.567540000000001</v>
+        <v>28.749701999999999</v>
       </c>
       <c r="R375" s="1">
-        <v>139908637.09193999</v>
+        <v>132294281.994697</v>
       </c>
       <c r="S375" s="1">
-        <v>24831962447.868</v>
+        <v>123065266523.5</v>
       </c>
       <c r="T375" s="1">
-        <v>162250157.283739</v>
+        <v>153182674.80932799</v>
       </c>
     </row>
     <row r="376" spans="1:20" x14ac:dyDescent="0.2">
@@ -27212,48 +27212,48 @@
         <v>1165</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F376" s="1">
-        <v>423632587</v>
+        <v>963428200</v>
       </c>
       <c r="G376" s="1">
-        <v>290.5</v>
+        <v>12.70735</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I376" s="1">
-        <v>143356828.23745099</v>
+        <v>25771812.025296599</v>
       </c>
       <c r="J376" s="1">
-        <v>101959386.583333</v>
+        <v>18061604.2826708</v>
       </c>
       <c r="K376" s="1"/>
       <c r="L376" s="1"/>
       <c r="M376" s="1">
-        <v>157206054.781299</v>
+        <v>27371797.1024133</v>
       </c>
       <c r="N376" s="1">
-        <v>32.631252000000003</v>
+        <v>24.058810000000001</v>
       </c>
       <c r="O376" s="1">
-        <v>32.640853999999997</v>
+        <v>25.327304999999999</v>
       </c>
       <c r="P376" s="1">
-        <v>148940106.38975</v>
+        <v>26047863.4732222</v>
       </c>
       <c r="Q376" s="1">
-        <v>28.749701999999999</v>
+        <v>21.093132000000001</v>
       </c>
       <c r="R376" s="1">
-        <v>132294281.994697</v>
+        <v>25652031.1835704</v>
       </c>
       <c r="S376" s="1">
-        <v>123065266523.5</v>
+        <v>12242619337.27</v>
       </c>
       <c r="T376" s="1">
-        <v>153182674.80932799</v>
+        <v>29739427.316621002</v>
       </c>
     </row>
     <row r="377" spans="1:20" x14ac:dyDescent="0.2">
@@ -27270,48 +27270,48 @@
         <v>1168</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F377" s="1">
-        <v>963428200</v>
+        <v>499063699</v>
       </c>
       <c r="G377" s="1">
-        <v>12.70735</v>
+        <v>98.16</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I377" s="1">
-        <v>25771812.025296599</v>
+        <v>94765890.289529398</v>
       </c>
       <c r="J377" s="1">
-        <v>18061604.2826708</v>
+        <v>73843687.181333393</v>
       </c>
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
       <c r="M377" s="1">
-        <v>27371797.1024133</v>
+        <v>105428208.22543301</v>
       </c>
       <c r="N377" s="1">
-        <v>24.058810000000001</v>
+        <v>40.090690000000002</v>
       </c>
       <c r="O377" s="1">
-        <v>25.327304999999999</v>
+        <v>38.379730000000002</v>
       </c>
       <c r="P377" s="1">
-        <v>26047863.4732222</v>
+        <v>93184128.056099907</v>
       </c>
       <c r="Q377" s="1">
-        <v>21.093132000000001</v>
+        <v>36.228740000000002</v>
       </c>
       <c r="R377" s="1">
-        <v>25652031.1835704</v>
+        <v>81709919.195605993</v>
       </c>
       <c r="S377" s="1">
-        <v>12242619337.27</v>
+        <v>48988092693.839996</v>
       </c>
       <c r="T377" s="1">
-        <v>29739427.316621002</v>
+        <v>94654067.338646099</v>
       </c>
     </row>
     <row r="378" spans="1:20" x14ac:dyDescent="0.2">
@@ -27328,48 +27328,48 @@
         <v>1171</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F378" s="1">
-        <v>499063699</v>
+        <v>1995631862</v>
       </c>
       <c r="G378" s="1">
-        <v>98.16</v>
+        <v>2.4089999999999998</v>
       </c>
       <c r="H378" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I378" s="1">
-        <v>94765890.289529398</v>
+        <v>86871417.749078304</v>
       </c>
       <c r="J378" s="1">
-        <v>73843687.181333393</v>
+        <v>73490672.337285697</v>
       </c>
       <c r="K378" s="1"/>
       <c r="L378" s="1"/>
       <c r="M378" s="1">
-        <v>105428208.22543301</v>
+        <v>100899762.86307301</v>
       </c>
       <c r="N378" s="1">
-        <v>40.090690000000002</v>
+        <v>38.787089999999999</v>
       </c>
       <c r="O378" s="1">
-        <v>38.379730000000002</v>
+        <v>38.896732</v>
       </c>
       <c r="P378" s="1">
-        <v>93184128.056099907</v>
+        <v>95307598.271689907</v>
       </c>
       <c r="Q378" s="1">
-        <v>36.228740000000002</v>
+        <v>36.578086999999996</v>
       </c>
       <c r="R378" s="1">
-        <v>81709919.195605993</v>
+        <v>95720412.144299999</v>
       </c>
       <c r="S378" s="1">
-        <v>48988092693.839996</v>
+        <v>4807477155.5579996</v>
       </c>
       <c r="T378" s="1">
-        <v>94654067.338646099</v>
+        <v>110831682.90904801</v>
       </c>
     </row>
     <row r="379" spans="1:20" x14ac:dyDescent="0.2">
@@ -27386,48 +27386,48 @@
         <v>1174</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="F379" s="1">
-        <v>1995631862</v>
+        <v>135387515</v>
       </c>
       <c r="G379" s="1">
-        <v>2.4089999999999998</v>
+        <v>42.140099999999997</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I379" s="1">
-        <v>86871417.749078304</v>
+        <v>9318437.2476641405</v>
       </c>
       <c r="J379" s="1">
-        <v>73490672.337285697</v>
+        <v>12269395.6801845</v>
       </c>
       <c r="K379" s="1"/>
       <c r="L379" s="1"/>
       <c r="M379" s="1">
-        <v>100899762.86307301</v>
+        <v>10148369.384452101</v>
       </c>
       <c r="N379" s="1">
-        <v>38.787089999999999</v>
+        <v>32.180667999999997</v>
       </c>
       <c r="O379" s="1">
-        <v>38.896732</v>
+        <v>34.311996000000001</v>
       </c>
       <c r="P379" s="1">
-        <v>95307598.271689907</v>
+        <v>10592510.6972347</v>
       </c>
       <c r="Q379" s="1">
-        <v>36.578086999999996</v>
+        <v>30.325520999999998</v>
       </c>
       <c r="R379" s="1">
-        <v>95720412.144299999</v>
+        <v>11431885.496770499</v>
       </c>
       <c r="S379" s="1">
-        <v>4807477155.5579996</v>
+        <v>5705243420.8514996</v>
       </c>
       <c r="T379" s="1">
-        <v>110831682.90904801</v>
+        <v>13247461.8800552</v>
       </c>
     </row>
     <row r="380" spans="1:20" x14ac:dyDescent="0.2">
@@ -27444,48 +27444,48 @@
         <v>1177</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>124</v>
+        <v>514</v>
       </c>
       <c r="F380" s="1">
-        <v>135387515</v>
+        <v>2691238800</v>
       </c>
       <c r="G380" s="1">
-        <v>42.140099999999997</v>
+        <v>9.9039999999999999</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I380" s="1">
-        <v>9318437.2476641405</v>
+        <v>29501773.677911598</v>
       </c>
       <c r="J380" s="1">
-        <v>12269395.6801845</v>
+        <v>30113747.673999999</v>
       </c>
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
       <c r="M380" s="1">
-        <v>10148369.384452101</v>
+        <v>30400425.05232</v>
       </c>
       <c r="N380" s="1">
-        <v>32.180667999999997</v>
+        <v>19.555682999999998</v>
       </c>
       <c r="O380" s="1">
-        <v>34.311996000000001</v>
+        <v>20.806746</v>
       </c>
       <c r="P380" s="1">
-        <v>10592510.6972347</v>
+        <v>30404874.248199999</v>
       </c>
       <c r="Q380" s="1">
-        <v>30.325520999999998</v>
+        <v>18.665600000000001</v>
       </c>
       <c r="R380" s="1">
-        <v>11431885.496770499</v>
+        <v>27391801.947500002</v>
       </c>
       <c r="S380" s="1">
-        <v>5705243420.8514996</v>
+        <v>26654029075.200001</v>
       </c>
       <c r="T380" s="1">
-        <v>13247461.8800552</v>
+        <v>31709139.724953599</v>
       </c>
     </row>
     <row r="381" spans="1:20" x14ac:dyDescent="0.2">
@@ -27502,48 +27502,48 @@
         <v>1180</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>514</v>
+        <v>49</v>
       </c>
       <c r="F381" s="1">
-        <v>2691238800</v>
+        <v>440000000</v>
       </c>
       <c r="G381" s="1">
-        <v>9.9039999999999999</v>
+        <v>53.467840000000002</v>
       </c>
       <c r="H381" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I381" s="1">
-        <v>29501773.677911598</v>
+        <v>43148800.499763303</v>
       </c>
       <c r="J381" s="1">
-        <v>30113747.673999999</v>
+        <v>50016080.085921504</v>
       </c>
       <c r="K381" s="1"/>
       <c r="L381" s="1"/>
       <c r="M381" s="1">
-        <v>30400425.05232</v>
+        <v>48220312.915636003</v>
       </c>
       <c r="N381" s="1">
-        <v>19.555682999999998</v>
+        <v>35.516945</v>
       </c>
       <c r="O381" s="1">
-        <v>20.806746</v>
+        <v>36.385821999999997</v>
       </c>
       <c r="P381" s="1">
-        <v>30404874.248199999</v>
+        <v>46923617.299335398</v>
       </c>
       <c r="Q381" s="1">
-        <v>18.665600000000001</v>
+        <v>31.982697999999999</v>
       </c>
       <c r="R381" s="1">
-        <v>27391801.947500002</v>
+        <v>44743324.1617845</v>
       </c>
       <c r="S381" s="1">
-        <v>26654029075.200001</v>
+        <v>23525849600</v>
       </c>
       <c r="T381" s="1">
-        <v>31709139.724953599</v>
+        <v>51827823.018149301</v>
       </c>
     </row>
     <row r="382" spans="1:20" x14ac:dyDescent="0.2">
@@ -27560,48 +27560,48 @@
         <v>1183</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F382" s="1">
-        <v>440000000</v>
+        <v>1254385900</v>
       </c>
       <c r="G382" s="1">
-        <v>53.467840000000002</v>
+        <v>21.857230000000001</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I382" s="1">
-        <v>43148800.499763303</v>
+        <v>37009498.059866801</v>
       </c>
       <c r="J382" s="1">
-        <v>50016080.085921504</v>
+        <v>26337500.563971199</v>
       </c>
       <c r="K382" s="1"/>
       <c r="L382" s="1"/>
       <c r="M382" s="1">
-        <v>48220312.915636003</v>
+        <v>40356085.540015303</v>
       </c>
       <c r="N382" s="1">
-        <v>35.516945</v>
+        <v>29.491312000000001</v>
       </c>
       <c r="O382" s="1">
-        <v>36.385821999999997</v>
+        <v>29.709965</v>
       </c>
       <c r="P382" s="1">
-        <v>46923617.299335398</v>
+        <v>38912048.363641001</v>
       </c>
       <c r="Q382" s="1">
-        <v>31.982697999999999</v>
+        <v>29.050692000000002</v>
       </c>
       <c r="R382" s="1">
-        <v>44743324.1617845</v>
+        <v>32792295.841710601</v>
       </c>
       <c r="S382" s="1">
-        <v>23525849600</v>
+        <v>27417401125.057003</v>
       </c>
       <c r="T382" s="1">
-        <v>51827823.018149301</v>
+        <v>37965406.394210599</v>
       </c>
     </row>
     <row r="383" spans="1:20" x14ac:dyDescent="0.2">
@@ -27618,48 +27618,48 @@
         <v>1186</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F383" s="1">
-        <v>1254385900</v>
+        <v>1227468973</v>
       </c>
       <c r="G383" s="1">
-        <v>21.857230000000001</v>
+        <v>87.34</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I383" s="1">
-        <v>37009498.059866801</v>
+        <v>175427487.327059</v>
       </c>
       <c r="J383" s="1">
-        <v>26337500.563971199</v>
+        <v>131670688.43333299</v>
       </c>
       <c r="K383" s="1"/>
       <c r="L383" s="1"/>
       <c r="M383" s="1">
-        <v>40356085.540015303</v>
+        <v>197334736.84145701</v>
       </c>
       <c r="N383" s="1">
-        <v>29.491312000000001</v>
+        <v>26.953596000000001</v>
       </c>
       <c r="O383" s="1">
-        <v>29.709965</v>
+        <v>28.664166999999999</v>
       </c>
       <c r="P383" s="1">
-        <v>38912048.363641001</v>
+        <v>185325085.29265001</v>
       </c>
       <c r="Q383" s="1">
-        <v>29.050692000000002</v>
+        <v>24.402937000000001</v>
       </c>
       <c r="R383" s="1">
-        <v>32792295.841710601</v>
+        <v>158913818.45727301</v>
       </c>
       <c r="S383" s="1">
-        <v>27417401125.057003</v>
+        <v>107207140101.82001</v>
       </c>
       <c r="T383" s="1">
-        <v>37965406.394210599</v>
+        <v>183772048.60510999</v>
       </c>
     </row>
     <row r="384" spans="1:20" x14ac:dyDescent="0.2">
@@ -27676,48 +27676,48 @@
         <v>1189</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F384" s="1">
-        <v>1227468973</v>
+        <v>1228504300</v>
       </c>
       <c r="G384" s="1">
-        <v>87.34</v>
+        <v>232.6</v>
       </c>
       <c r="H384" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I384" s="1">
-        <v>175427487.327059</v>
+        <v>385947384.86324102</v>
       </c>
       <c r="J384" s="1">
-        <v>131670688.43333299</v>
+        <v>326685869.80000001</v>
       </c>
       <c r="K384" s="1"/>
       <c r="L384" s="1"/>
       <c r="M384" s="1">
-        <v>197334736.84145701</v>
+        <v>446318301.82716501</v>
       </c>
       <c r="N384" s="1">
-        <v>26.953596000000001</v>
+        <v>34.580933000000002</v>
       </c>
       <c r="O384" s="1">
-        <v>28.664166999999999</v>
+        <v>34.849384000000001</v>
       </c>
       <c r="P384" s="1">
-        <v>185325085.29265001</v>
+        <v>424183644.96174997</v>
       </c>
       <c r="Q384" s="1">
-        <v>24.402937000000001</v>
+        <v>30.497872999999998</v>
       </c>
       <c r="R384" s="1">
-        <v>158913818.45727301</v>
+        <v>374488107.97348499</v>
       </c>
       <c r="S384" s="1">
-        <v>107207140101.82001</v>
+        <v>285750100180</v>
       </c>
       <c r="T384" s="1">
-        <v>183772048.60510999</v>
+        <v>433558665.83106399</v>
       </c>
     </row>
     <row r="385" spans="1:20" x14ac:dyDescent="0.2">
@@ -27737,45 +27737,45 @@
         <v>86</v>
       </c>
       <c r="F385" s="1">
-        <v>1228504300</v>
+        <v>37440000</v>
       </c>
       <c r="G385" s="1">
-        <v>232.6</v>
+        <v>196.1</v>
       </c>
       <c r="H385" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I385" s="1">
-        <v>385947384.86324102</v>
+        <v>24492437.530138299</v>
       </c>
       <c r="J385" s="1">
-        <v>326685869.80000001</v>
+        <v>20081324.216666698</v>
       </c>
       <c r="K385" s="1"/>
       <c r="L385" s="1"/>
       <c r="M385" s="1">
-        <v>446318301.82716501</v>
+        <v>27322644.264763799</v>
       </c>
       <c r="N385" s="1">
-        <v>34.580933000000002</v>
+        <v>42.258845999999998</v>
       </c>
       <c r="O385" s="1">
-        <v>34.849384000000001</v>
+        <v>41.924370000000003</v>
       </c>
       <c r="P385" s="1">
-        <v>424183644.96174997</v>
+        <v>28246047.96525</v>
       </c>
       <c r="Q385" s="1">
-        <v>30.497872999999998</v>
+        <v>42.135280000000002</v>
       </c>
       <c r="R385" s="1">
-        <v>374488107.97348499</v>
+        <v>28303806.891666699</v>
       </c>
       <c r="S385" s="1">
-        <v>285750100180</v>
+        <v>7341984000</v>
       </c>
       <c r="T385" s="1">
-        <v>433558665.83106399</v>
+        <v>32802492.733986799</v>
       </c>
     </row>
     <row r="386" spans="1:20" x14ac:dyDescent="0.2">
@@ -27792,48 +27792,48 @@
         <v>1195</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F386" s="1">
-        <v>37440000</v>
+        <v>97330405</v>
       </c>
       <c r="G386" s="1">
-        <v>196.1</v>
+        <v>177.85</v>
       </c>
       <c r="H386" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I386" s="1">
-        <v>24492437.530138299</v>
+        <v>12920081.495980401</v>
       </c>
       <c r="J386" s="1">
-        <v>20081324.216666698</v>
+        <v>9770041.1183333304</v>
       </c>
       <c r="K386" s="1"/>
       <c r="L386" s="1"/>
       <c r="M386" s="1">
-        <v>27322644.264763799</v>
+        <v>13676019.3909449</v>
       </c>
       <c r="N386" s="1">
-        <v>42.258845999999998</v>
+        <v>38.755465999999998</v>
       </c>
       <c r="O386" s="1">
-        <v>41.924370000000003</v>
+        <v>40.353810000000003</v>
       </c>
       <c r="P386" s="1">
-        <v>28246047.96525</v>
+        <v>13392319.978</v>
       </c>
       <c r="Q386" s="1">
-        <v>42.135280000000002</v>
+        <v>36.892406000000001</v>
       </c>
       <c r="R386" s="1">
-        <v>28303806.891666699</v>
+        <v>12378180.234848499</v>
       </c>
       <c r="S386" s="1">
-        <v>7341984000</v>
+        <v>17310212529.25</v>
       </c>
       <c r="T386" s="1">
-        <v>32802492.733986799</v>
+        <v>14352788.185762299</v>
       </c>
     </row>
     <row r="387" spans="1:20" x14ac:dyDescent="0.2">
@@ -27850,48 +27850,48 @@
         <v>1198</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F387" s="1">
-        <v>97330405</v>
+        <v>944884640</v>
       </c>
       <c r="G387" s="1">
-        <v>177.85</v>
+        <v>5.18</v>
       </c>
       <c r="H387" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I387" s="1">
-        <v>12920081.495980401</v>
+        <v>3424321.7753075399</v>
       </c>
       <c r="J387" s="1">
-        <v>9770041.1183333304</v>
+        <v>2333927.6645999998</v>
       </c>
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
       <c r="M387" s="1">
-        <v>13676019.3909449</v>
+        <v>3765852.9960354301</v>
       </c>
       <c r="N387" s="1">
-        <v>38.755465999999998</v>
+        <v>40.940112999999997</v>
       </c>
       <c r="O387" s="1">
-        <v>40.353810000000003</v>
+        <v>39.803801999999997</v>
       </c>
       <c r="P387" s="1">
-        <v>13392319.978</v>
+        <v>3205240.4439070001</v>
       </c>
       <c r="Q387" s="1">
-        <v>36.892406000000001</v>
+        <v>41.332259999999998</v>
       </c>
       <c r="R387" s="1">
-        <v>12378180.234848499</v>
+        <v>2617146.0275075799</v>
       </c>
       <c r="S387" s="1">
-        <v>17310212529.25</v>
+        <v>4894502435.1999998</v>
       </c>
       <c r="T387" s="1">
-        <v>14352788.185762299</v>
+        <v>3039967.8050303799</v>
       </c>
     </row>
     <row r="388" spans="1:20" x14ac:dyDescent="0.2">
@@ -27908,48 +27908,48 @@
         <v>1201</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="F388" s="1">
-        <v>944884640</v>
+        <v>40716830</v>
       </c>
       <c r="G388" s="1">
-        <v>5.18</v>
+        <v>325.15089999999998</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I388" s="1">
-        <v>3424321.7753075399</v>
+        <v>28569602.203960601</v>
       </c>
       <c r="J388" s="1">
-        <v>2333927.6645999998</v>
+        <v>19020758.959293701</v>
       </c>
       <c r="K388" s="1"/>
       <c r="L388" s="1"/>
       <c r="M388" s="1">
-        <v>3765852.9960354301</v>
+        <v>30996780.268731501</v>
       </c>
       <c r="N388" s="1">
-        <v>40.940112999999997</v>
+        <v>21.756964</v>
       </c>
       <c r="O388" s="1">
-        <v>39.803801999999997</v>
+        <v>22.507887</v>
       </c>
       <c r="P388" s="1">
-        <v>3205240.4439070001</v>
+        <v>29434330.377939001</v>
       </c>
       <c r="Q388" s="1">
-        <v>41.332259999999998</v>
+        <v>20.146529999999998</v>
       </c>
       <c r="R388" s="1">
-        <v>2617146.0275075799</v>
+        <v>23713398.850393701</v>
       </c>
       <c r="S388" s="1">
-        <v>4894502435.1999998</v>
+        <v>13239113919.646999</v>
       </c>
       <c r="T388" s="1">
-        <v>3039967.8050303799</v>
+        <v>27491694.333445501</v>
       </c>
     </row>
     <row r="389" spans="1:20" x14ac:dyDescent="0.2">
@@ -27966,48 +27966,48 @@
         <v>1204</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F389" s="1">
-        <v>40716830</v>
+        <v>577122512</v>
       </c>
       <c r="G389" s="1">
-        <v>325.15089999999998</v>
+        <v>215.4</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I389" s="1">
-        <v>28569602.203960601</v>
+        <v>215386900.15400001</v>
       </c>
       <c r="J389" s="1">
-        <v>19020758.959293701</v>
+        <v>178937611.813333</v>
       </c>
       <c r="K389" s="1"/>
       <c r="L389" s="1"/>
       <c r="M389" s="1">
-        <v>30996780.268731501</v>
+        <v>239395151.65507901</v>
       </c>
       <c r="N389" s="1">
-        <v>21.756964</v>
+        <v>37.236922999999997</v>
       </c>
       <c r="O389" s="1">
-        <v>22.507887</v>
+        <v>37.408535000000001</v>
       </c>
       <c r="P389" s="1">
-        <v>29434330.377939001</v>
+        <v>220097773.5282</v>
       </c>
       <c r="Q389" s="1">
-        <v>20.146529999999998</v>
+        <v>38.358868000000001</v>
       </c>
       <c r="R389" s="1">
-        <v>23713398.850393701</v>
+        <v>198576007.52083299</v>
       </c>
       <c r="S389" s="1">
-        <v>13239113919.646999</v>
+        <v>124312189084.8</v>
       </c>
       <c r="T389" s="1">
-        <v>27491694.333445501</v>
+        <v>229968277.43129399</v>
       </c>
     </row>
     <row r="390" spans="1:20" x14ac:dyDescent="0.2">
@@ -28024,48 +28024,48 @@
         <v>1207</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F390" s="1">
-        <v>577122512</v>
+        <v>1610711300</v>
       </c>
       <c r="G390" s="1">
-        <v>215.4</v>
+        <v>4.5774160000000004</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I390" s="1">
-        <v>215386900.15400001</v>
+        <v>8830525.2024570704</v>
       </c>
       <c r="J390" s="1">
-        <v>178937611.813333</v>
+        <v>7041956.4527419796</v>
       </c>
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
       <c r="M390" s="1">
-        <v>239395151.65507901</v>
+        <v>9303398.2964473292</v>
       </c>
       <c r="N390" s="1">
-        <v>37.236922999999997</v>
+        <v>32.093319999999999</v>
       </c>
       <c r="O390" s="1">
-        <v>37.408535000000001</v>
+        <v>24.71733</v>
       </c>
       <c r="P390" s="1">
-        <v>220097773.5282</v>
+        <v>8231000.3761436203</v>
       </c>
       <c r="Q390" s="1">
-        <v>38.358868000000001</v>
+        <v>29.686126999999999</v>
       </c>
       <c r="R390" s="1">
-        <v>198576007.52083299</v>
+        <v>8552813.5458995197</v>
       </c>
       <c r="S390" s="1">
-        <v>124312189084.8</v>
+        <v>7372895676.0008001</v>
       </c>
       <c r="T390" s="1">
-        <v>229968277.43129399</v>
+        <v>9905311.1668989006</v>
       </c>
     </row>
     <row r="391" spans="1:20" x14ac:dyDescent="0.2">
@@ -28082,48 +28082,48 @@
         <v>1210</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F391" s="1">
-        <v>1610711300</v>
+        <v>179363695</v>
       </c>
       <c r="G391" s="1">
-        <v>4.5774160000000004</v>
+        <v>28.96</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I391" s="1">
-        <v>8830525.2024570704</v>
+        <v>13023855.2403726</v>
       </c>
       <c r="J391" s="1">
-        <v>7041956.4527419796</v>
+        <v>9846233.2693333309</v>
       </c>
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
       <c r="M391" s="1">
-        <v>9303398.2964473292</v>
+        <v>14299446.3146457</v>
       </c>
       <c r="N391" s="1">
-        <v>32.093319999999999</v>
+        <v>32.464916000000002</v>
       </c>
       <c r="O391" s="1">
-        <v>24.71733</v>
+        <v>33.362175000000001</v>
       </c>
       <c r="P391" s="1">
-        <v>8231000.3761436203</v>
+        <v>13638845.786900001</v>
       </c>
       <c r="Q391" s="1">
-        <v>29.686126999999999</v>
+        <v>29.274193</v>
       </c>
       <c r="R391" s="1">
-        <v>8552813.5458995197</v>
+        <v>10784555.7571212</v>
       </c>
       <c r="S391" s="1">
-        <v>7372895676.0008001</v>
+        <v>5194372607.1999998</v>
       </c>
       <c r="T391" s="1">
-        <v>9905311.1668989006</v>
+        <v>12483034.296616601</v>
       </c>
     </row>
     <row r="392" spans="1:20" x14ac:dyDescent="0.2">
@@ -28140,48 +28140,48 @@
         <v>1213</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F392" s="1">
-        <v>179363695</v>
+        <v>75000000</v>
       </c>
       <c r="G392" s="1">
-        <v>28.96</v>
+        <v>114.1</v>
       </c>
       <c r="H392" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I392" s="1">
-        <v>13023855.2403726</v>
+        <v>14597874.7623518</v>
       </c>
       <c r="J392" s="1">
-        <v>9846233.2693333309</v>
+        <v>14473382.140000001</v>
       </c>
       <c r="K392" s="1"/>
       <c r="L392" s="1"/>
       <c r="M392" s="1">
-        <v>14299446.3146457</v>
+        <v>18517519.855315</v>
       </c>
       <c r="N392" s="1">
-        <v>32.464916000000002</v>
+        <v>26.358383</v>
       </c>
       <c r="O392" s="1">
-        <v>33.362175000000001</v>
+        <v>23.982323000000001</v>
       </c>
       <c r="P392" s="1">
-        <v>13638845.786900001</v>
+        <v>17051233.618749999</v>
       </c>
       <c r="Q392" s="1">
-        <v>29.274193</v>
+        <v>23.868421999999999</v>
       </c>
       <c r="R392" s="1">
-        <v>10784555.7571212</v>
+        <v>16378155.1</v>
       </c>
       <c r="S392" s="1">
-        <v>5194372607.1999998</v>
+        <v>8557500000</v>
       </c>
       <c r="T392" s="1">
-        <v>12483034.296616601</v>
+        <v>18966084.6962508</v>
       </c>
     </row>
     <row r="393" spans="1:20" x14ac:dyDescent="0.2">
@@ -28198,48 +28198,48 @@
         <v>1216</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="F393" s="1">
-        <v>75000000</v>
+        <v>182017440</v>
       </c>
       <c r="G393" s="1">
-        <v>114.1</v>
+        <v>31.82987</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I393" s="1">
-        <v>14597874.7623518</v>
+        <v>3520691.5439899201</v>
       </c>
       <c r="J393" s="1">
-        <v>14473382.140000001</v>
+        <v>2569928.5474291602</v>
       </c>
       <c r="K393" s="1"/>
       <c r="L393" s="1"/>
       <c r="M393" s="1">
-        <v>18517519.855315</v>
+        <v>3685257.1367431702</v>
       </c>
       <c r="N393" s="1">
-        <v>26.358383</v>
+        <v>33.287216000000001</v>
       </c>
       <c r="O393" s="1">
-        <v>23.982323000000001</v>
+        <v>30.441057000000001</v>
       </c>
       <c r="P393" s="1">
-        <v>17051233.618749999</v>
+        <v>3825975.7054258701</v>
       </c>
       <c r="Q393" s="1">
-        <v>23.868421999999999</v>
+        <v>31.393719000000001</v>
       </c>
       <c r="R393" s="1">
-        <v>16378155.1</v>
+        <v>3709323.7235085298</v>
       </c>
       <c r="S393" s="1">
-        <v>8557500000</v>
+        <v>5793591452.9328003</v>
       </c>
       <c r="T393" s="1">
-        <v>18966084.6962508</v>
+        <v>4288555.7027556803</v>
       </c>
     </row>
     <row r="394" spans="1:20" x14ac:dyDescent="0.2">
@@ -28259,45 +28259,45 @@
         <v>33</v>
       </c>
       <c r="F394" s="1">
-        <v>182017440</v>
+        <v>546454160</v>
       </c>
       <c r="G394" s="1">
-        <v>31.82987</v>
+        <v>13.706770000000001</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I394" s="1">
-        <v>3520691.5439899201</v>
+        <v>12214279.1770129</v>
       </c>
       <c r="J394" s="1">
-        <v>2569928.5474291602</v>
+        <v>6385306.4068595897</v>
       </c>
       <c r="K394" s="1"/>
       <c r="L394" s="1"/>
       <c r="M394" s="1">
-        <v>3685257.1367431702</v>
+        <v>11291262.890175801</v>
       </c>
       <c r="N394" s="1">
-        <v>33.287216000000001</v>
+        <v>23.264717000000001</v>
       </c>
       <c r="O394" s="1">
-        <v>30.441057000000001</v>
+        <v>24.646692000000002</v>
       </c>
       <c r="P394" s="1">
-        <v>3825975.7054258701</v>
+        <v>10430354.653193399</v>
       </c>
       <c r="Q394" s="1">
-        <v>31.393719000000001</v>
+        <v>23.136026000000001</v>
       </c>
       <c r="R394" s="1">
-        <v>3709323.7235085298</v>
+        <v>8720195.1338338405</v>
       </c>
       <c r="S394" s="1">
-        <v>5793591452.9328003</v>
+        <v>7490121486.6632004</v>
       </c>
       <c r="T394" s="1">
-        <v>4288555.7027556803</v>
+        <v>10076415.4225921</v>
       </c>
     </row>
     <row r="395" spans="1:20" x14ac:dyDescent="0.2">
@@ -28314,48 +28314,48 @@
         <v>1222</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F395" s="1">
-        <v>546454160</v>
+        <v>1353491100</v>
       </c>
       <c r="G395" s="1">
-        <v>13.706770000000001</v>
+        <v>7.4651360000000002</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I395" s="1">
-        <v>12214279.1770129</v>
+        <v>19220853.9676366</v>
       </c>
       <c r="J395" s="1">
-        <v>6385306.4068595897</v>
+        <v>13228739.7565316</v>
       </c>
       <c r="K395" s="1"/>
       <c r="L395" s="1"/>
       <c r="M395" s="1">
-        <v>11291262.890175801</v>
+        <v>17464574.974661902</v>
       </c>
       <c r="N395" s="1">
-        <v>23.264717000000001</v>
+        <v>25.840389999999999</v>
       </c>
       <c r="O395" s="1">
-        <v>24.646692000000002</v>
+        <v>26.960619999999999</v>
       </c>
       <c r="P395" s="1">
-        <v>10430354.653193399</v>
+        <v>17434004.9939573</v>
       </c>
       <c r="Q395" s="1">
-        <v>23.136026000000001</v>
+        <v>24.293635999999999</v>
       </c>
       <c r="R395" s="1">
-        <v>8720195.1338338405</v>
+        <v>15995103.3129394</v>
       </c>
       <c r="S395" s="1">
-        <v>7490121486.6632004</v>
+        <v>10103995136.2896</v>
       </c>
       <c r="T395" s="1">
-        <v>10076415.4225921</v>
+        <v>18487121.222737301</v>
       </c>
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.2">
@@ -28375,45 +28375,45 @@
         <v>23</v>
       </c>
       <c r="F396" s="1">
-        <v>1353491100</v>
+        <v>301015400</v>
       </c>
       <c r="G396" s="1">
-        <v>7.4651360000000002</v>
+        <v>30.23911</v>
       </c>
       <c r="H396" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I396" s="1">
-        <v>19220853.9676366</v>
+        <v>15484902.108356001</v>
       </c>
       <c r="J396" s="1">
-        <v>13228739.7565316</v>
+        <v>12018578.729080301</v>
       </c>
       <c r="K396" s="1"/>
       <c r="L396" s="1"/>
       <c r="M396" s="1">
-        <v>17464574.974661902</v>
+        <v>15902779.3571807</v>
       </c>
       <c r="N396" s="1">
-        <v>25.840389999999999</v>
+        <v>24.815207999999998</v>
       </c>
       <c r="O396" s="1">
-        <v>26.960619999999999</v>
+        <v>24.192339</v>
       </c>
       <c r="P396" s="1">
-        <v>17434004.9939573</v>
+        <v>15834877.991963699</v>
       </c>
       <c r="Q396" s="1">
-        <v>24.293635999999999</v>
+        <v>23.981612999999999</v>
       </c>
       <c r="R396" s="1">
-        <v>15995103.3129394</v>
+        <v>13668665.8476381</v>
       </c>
       <c r="S396" s="1">
-        <v>10103995136.2896</v>
+        <v>9102437792.2940006</v>
       </c>
       <c r="T396" s="1">
-        <v>18487121.222737301</v>
+        <v>15814165.4011792</v>
       </c>
     </row>
     <row r="397" spans="1:20" x14ac:dyDescent="0.2">
@@ -28430,48 +28430,48 @@
         <v>1228</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F397" s="1">
-        <v>301015400</v>
+        <v>194777280</v>
       </c>
       <c r="G397" s="1">
-        <v>30.23911</v>
+        <v>88.814959999999999</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I397" s="1">
-        <v>15484902.108356001</v>
+        <v>37404414.5152798</v>
       </c>
       <c r="J397" s="1">
-        <v>12018578.729080301</v>
+        <v>26682221.643528901</v>
       </c>
       <c r="K397" s="1"/>
       <c r="L397" s="1"/>
       <c r="M397" s="1">
-        <v>15902779.3571807</v>
+        <v>35971756.0930866</v>
       </c>
       <c r="N397" s="1">
-        <v>24.815207999999998</v>
+        <v>22.023954</v>
       </c>
       <c r="O397" s="1">
-        <v>24.192339</v>
+        <v>22.455960000000001</v>
       </c>
       <c r="P397" s="1">
-        <v>15834877.991963699</v>
+        <v>34518091.4942922</v>
       </c>
       <c r="Q397" s="1">
-        <v>23.981612999999999</v>
+        <v>23.320284000000001</v>
       </c>
       <c r="R397" s="1">
-        <v>13668665.8476381</v>
+        <v>30866555.241186202</v>
       </c>
       <c r="S397" s="1">
-        <v>9102437792.2940006</v>
+        <v>17299136332.108799</v>
       </c>
       <c r="T397" s="1">
-        <v>15814165.4011792</v>
+        <v>35772449.2047088</v>
       </c>
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.2">
@@ -28488,48 +28488,48 @@
         <v>1231</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F398" s="1">
-        <v>194777280</v>
+        <v>5977723229</v>
       </c>
       <c r="G398" s="1">
-        <v>88.814959999999999</v>
+        <v>31.225000000000001</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I398" s="1">
-        <v>37404414.5152798</v>
+        <v>181397433.41784301</v>
       </c>
       <c r="J398" s="1">
-        <v>26682221.643528901</v>
+        <v>124879948.259</v>
       </c>
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
       <c r="M398" s="1">
-        <v>35971756.0930866</v>
+        <v>173797736.260158</v>
       </c>
       <c r="N398" s="1">
-        <v>22.023954</v>
+        <v>24.696128999999999</v>
       </c>
       <c r="O398" s="1">
-        <v>22.455960000000001</v>
+        <v>25.525755</v>
       </c>
       <c r="P398" s="1">
-        <v>34518091.4942922</v>
+        <v>161238075.705275</v>
       </c>
       <c r="Q398" s="1">
-        <v>23.320284000000001</v>
+        <v>22.644774999999999</v>
       </c>
       <c r="R398" s="1">
-        <v>30866555.241186202</v>
+        <v>140557310.69719699</v>
       </c>
       <c r="S398" s="1">
-        <v>17299136332.108799</v>
+        <v>186654407825.52499</v>
       </c>
       <c r="T398" s="1">
-        <v>35772449.2047088</v>
+        <v>162907378.85224801</v>
       </c>
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.2">
@@ -28546,48 +28546,48 @@
         <v>1234</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F399" s="1">
-        <v>5977723229</v>
+        <v>45230000</v>
       </c>
       <c r="G399" s="1">
-        <v>31.225000000000001</v>
+        <v>91.668270000000007</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I399" s="1">
-        <v>181397433.41784301</v>
+        <v>7800057.6742799897</v>
       </c>
       <c r="J399" s="1">
-        <v>124879948.259</v>
+        <v>5329250.7838039296</v>
       </c>
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
       <c r="M399" s="1">
-        <v>173797736.260158</v>
+        <v>7601325.7668304797</v>
       </c>
       <c r="N399" s="1">
-        <v>24.696128999999999</v>
+        <v>28.229676999999999</v>
       </c>
       <c r="O399" s="1">
-        <v>25.525755</v>
+        <v>29.970006999999999</v>
       </c>
       <c r="P399" s="1">
-        <v>161238075.705275</v>
+        <v>6631077.1161861904</v>
       </c>
       <c r="Q399" s="1">
-        <v>22.644774999999999</v>
+        <v>27.936098000000001</v>
       </c>
       <c r="R399" s="1">
-        <v>140557310.69719699</v>
+        <v>5654580.1138340598</v>
       </c>
       <c r="S399" s="1">
-        <v>186654407825.52499</v>
+        <v>4146155852.1000004</v>
       </c>
       <c r="T399" s="1">
-        <v>162907378.85224801</v>
+        <v>6552258.0889655398</v>
       </c>
     </row>
     <row r="400" spans="1:20" x14ac:dyDescent="0.2">
@@ -28604,48 +28604,48 @@
         <v>1237</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F400" s="1">
-        <v>45230000</v>
+        <v>800000000</v>
       </c>
       <c r="G400" s="1">
-        <v>91.668270000000007</v>
+        <v>236.9</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I400" s="1">
-        <v>7800057.6742799897</v>
+        <v>261673012.990336</v>
       </c>
       <c r="J400" s="1">
-        <v>5329250.7838039296</v>
+        <v>191949382.03</v>
       </c>
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
       <c r="M400" s="1">
-        <v>7601325.7668304797</v>
+        <v>296451640.81244099</v>
       </c>
       <c r="N400" s="1">
-        <v>28.229676999999999</v>
+        <v>37.144542999999999</v>
       </c>
       <c r="O400" s="1">
-        <v>29.970006999999999</v>
+        <v>34.699435999999999</v>
       </c>
       <c r="P400" s="1">
-        <v>6631077.1161861904</v>
+        <v>265240879.22854999</v>
       </c>
       <c r="Q400" s="1">
-        <v>27.936098000000001</v>
+        <v>34.493465</v>
       </c>
       <c r="R400" s="1">
-        <v>5654580.1138340598</v>
+        <v>223138520.92954499</v>
       </c>
       <c r="S400" s="1">
-        <v>4146155852.1000004</v>
+        <v>189520000000</v>
       </c>
       <c r="T400" s="1">
-        <v>6552258.0889655398</v>
+        <v>258331611.21454099</v>
       </c>
     </row>
     <row r="401" spans="1:20" x14ac:dyDescent="0.2">
@@ -28665,45 +28665,45 @@
         <v>86</v>
       </c>
       <c r="F401" s="1">
-        <v>800000000</v>
+        <v>799335450</v>
       </c>
       <c r="G401" s="1">
-        <v>236.9</v>
+        <v>92.9</v>
       </c>
       <c r="H401" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I401" s="1">
-        <v>261673012.990336</v>
+        <v>181857735.80836001</v>
       </c>
       <c r="J401" s="1">
-        <v>191949382.03</v>
+        <v>179435504.477</v>
       </c>
       <c r="K401" s="1"/>
       <c r="L401" s="1"/>
       <c r="M401" s="1">
-        <v>296451640.81244099</v>
+        <v>211779403.53354299</v>
       </c>
       <c r="N401" s="1">
-        <v>37.144542999999999</v>
+        <v>53.701045999999998</v>
       </c>
       <c r="O401" s="1">
-        <v>34.699435999999999</v>
+        <v>45.547061999999997</v>
       </c>
       <c r="P401" s="1">
-        <v>265240879.22854999</v>
+        <v>196987032.66424999</v>
       </c>
       <c r="Q401" s="1">
-        <v>34.493465</v>
+        <v>58.617719999999998</v>
       </c>
       <c r="R401" s="1">
-        <v>223138520.92954499</v>
+        <v>187026505.471212</v>
       </c>
       <c r="S401" s="1">
-        <v>189520000000</v>
+        <v>74258263305</v>
       </c>
       <c r="T401" s="1">
-        <v>258331611.21454099</v>
+        <v>216544849.883984</v>
       </c>
     </row>
     <row r="402" spans="1:20" x14ac:dyDescent="0.2">
@@ -28723,45 +28723,45 @@
         <v>86</v>
       </c>
       <c r="F402" s="1">
-        <v>799335450</v>
+        <v>1128000000</v>
       </c>
       <c r="G402" s="1">
-        <v>92.9</v>
+        <v>47.98</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I402" s="1">
-        <v>181857735.80836001</v>
+        <v>40009088.476106703</v>
       </c>
       <c r="J402" s="1">
-        <v>179435504.477</v>
+        <v>28492595.665333301</v>
       </c>
       <c r="K402" s="1"/>
       <c r="L402" s="1"/>
       <c r="M402" s="1">
-        <v>211779403.53354299</v>
+        <v>45591013.844606303</v>
       </c>
       <c r="N402" s="1">
-        <v>53.701045999999998</v>
+        <v>24.445059000000001</v>
       </c>
       <c r="O402" s="1">
-        <v>45.547061999999997</v>
+        <v>25.279520000000002</v>
       </c>
       <c r="P402" s="1">
-        <v>196987032.66424999</v>
+        <v>43944532.430749997</v>
       </c>
       <c r="Q402" s="1">
-        <v>58.617719999999998</v>
+        <v>23.957765999999999</v>
       </c>
       <c r="R402" s="1">
-        <v>187026505.471212</v>
+        <v>40479300.817878798</v>
       </c>
       <c r="S402" s="1">
-        <v>74258263305</v>
+        <v>54121440000</v>
       </c>
       <c r="T402" s="1">
-        <v>216544849.883984</v>
+        <v>46814742.661677398</v>
       </c>
     </row>
     <row r="403" spans="1:20" x14ac:dyDescent="0.2">
@@ -28778,48 +28778,48 @@
         <v>1246</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="F403" s="1">
-        <v>1128000000</v>
+        <v>382270870</v>
       </c>
       <c r="G403" s="1">
-        <v>47.98</v>
+        <v>14.27725</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I403" s="1">
-        <v>40009088.476106703</v>
+        <v>15978364.269770499</v>
       </c>
       <c r="J403" s="1">
-        <v>28492595.665333301</v>
+        <v>17148262.957340401</v>
       </c>
       <c r="K403" s="1"/>
       <c r="L403" s="1"/>
       <c r="M403" s="1">
-        <v>45591013.844606303</v>
+        <v>18107868.8396773</v>
       </c>
       <c r="N403" s="1">
-        <v>24.445059000000001</v>
+        <v>30.073181000000002</v>
       </c>
       <c r="O403" s="1">
-        <v>25.279520000000002</v>
+        <v>23.922180000000001</v>
       </c>
       <c r="P403" s="1">
-        <v>43944532.430749997</v>
+        <v>17176390.9780434</v>
       </c>
       <c r="Q403" s="1">
-        <v>23.957765999999999</v>
+        <v>27.699801999999998</v>
       </c>
       <c r="R403" s="1">
-        <v>40479300.817878798</v>
+        <v>16394720.8976728</v>
       </c>
       <c r="S403" s="1">
-        <v>54121440000</v>
+        <v>5457776778.7075005</v>
       </c>
       <c r="T403" s="1">
-        <v>46814742.661677398</v>
+        <v>19015054.023596998</v>
       </c>
     </row>
     <row r="404" spans="1:20" x14ac:dyDescent="0.2">
@@ -28839,45 +28839,45 @@
         <v>49</v>
       </c>
       <c r="F404" s="1">
-        <v>382270870</v>
+        <v>160479300</v>
       </c>
       <c r="G404" s="1">
-        <v>14.27725</v>
+        <v>202.76679999999999</v>
       </c>
       <c r="H404" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I404" s="1">
-        <v>15978364.269770499</v>
+        <v>86479735.075165302</v>
       </c>
       <c r="J404" s="1">
-        <v>17148262.957340401</v>
+        <v>72704518.013664901</v>
       </c>
       <c r="K404" s="1"/>
       <c r="L404" s="1"/>
       <c r="M404" s="1">
-        <v>18107868.8396773</v>
+        <v>91539824.220064804</v>
       </c>
       <c r="N404" s="1">
-        <v>30.073181000000002</v>
+        <v>29.385497999999998</v>
       </c>
       <c r="O404" s="1">
-        <v>23.922180000000001</v>
+        <v>27.685234000000001</v>
       </c>
       <c r="P404" s="1">
-        <v>17176390.9780434</v>
+        <v>85296248.518479094</v>
       </c>
       <c r="Q404" s="1">
-        <v>27.699801999999998</v>
+        <v>26.620850000000001</v>
       </c>
       <c r="R404" s="1">
-        <v>16394720.8976728</v>
+        <v>75516610.9059214</v>
       </c>
       <c r="S404" s="1">
-        <v>5457776778.7075005</v>
+        <v>32539874127.239998</v>
       </c>
       <c r="T404" s="1">
-        <v>19015054.023596998</v>
+        <v>87566759.558818698</v>
       </c>
     </row>
     <row r="405" spans="1:20" x14ac:dyDescent="0.2">
@@ -28894,48 +28894,48 @@
         <v>1252</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F405" s="1">
-        <v>160479300</v>
+        <v>2018544900</v>
       </c>
       <c r="G405" s="1">
-        <v>202.76679999999999</v>
+        <v>16.184229999999999</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I405" s="1">
-        <v>86479735.075165302</v>
+        <v>44400150.346942797</v>
       </c>
       <c r="J405" s="1">
-        <v>72704518.013664901</v>
+        <v>28005067.545768701</v>
       </c>
       <c r="K405" s="1"/>
       <c r="L405" s="1"/>
       <c r="M405" s="1">
-        <v>91539824.220064804</v>
+        <v>47260432.822289601</v>
       </c>
       <c r="N405" s="1">
-        <v>29.385497999999998</v>
+        <v>26.770647</v>
       </c>
       <c r="O405" s="1">
-        <v>27.685234000000001</v>
+        <v>27.749783000000001</v>
       </c>
       <c r="P405" s="1">
-        <v>85296248.518479094</v>
+        <v>44511342.416148297</v>
       </c>
       <c r="Q405" s="1">
-        <v>26.620850000000001</v>
+        <v>24.476192000000001</v>
       </c>
       <c r="R405" s="1">
-        <v>75516610.9059214</v>
+        <v>38737720.670526303</v>
       </c>
       <c r="S405" s="1">
-        <v>32539874127.239998</v>
+        <v>32668594926.926998</v>
       </c>
       <c r="T405" s="1">
-        <v>87566759.558818698</v>
+        <v>44831743.424028702</v>
       </c>
     </row>
     <row r="406" spans="1:20" x14ac:dyDescent="0.2">
@@ -28955,45 +28955,45 @@
         <v>33</v>
       </c>
       <c r="F406" s="1">
-        <v>2018544900</v>
+        <v>400358200</v>
       </c>
       <c r="G406" s="1">
-        <v>16.184229999999999</v>
+        <v>21.857230000000001</v>
       </c>
       <c r="H406" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I406" s="1">
-        <v>44400150.346942797</v>
+        <v>13474713.6152706</v>
       </c>
       <c r="J406" s="1">
-        <v>28005067.545768701</v>
+        <v>11128507.828471201</v>
       </c>
       <c r="K406" s="1"/>
       <c r="L406" s="1"/>
       <c r="M406" s="1">
-        <v>47260432.822289601</v>
+        <v>14474272.4120417</v>
       </c>
       <c r="N406" s="1">
-        <v>26.770647</v>
+        <v>26.318998000000001</v>
       </c>
       <c r="O406" s="1">
-        <v>27.749783000000001</v>
+        <v>25.737926000000002</v>
       </c>
       <c r="P406" s="1">
-        <v>44511342.416148297</v>
+        <v>14007998.8386687</v>
       </c>
       <c r="Q406" s="1">
-        <v>24.476192000000001</v>
+        <v>25.682959</v>
       </c>
       <c r="R406" s="1">
-        <v>38737720.670526303</v>
+        <v>13495470.8131634</v>
       </c>
       <c r="S406" s="1">
-        <v>32668594926.926998</v>
+        <v>8750721259.7860012</v>
       </c>
       <c r="T406" s="1">
-        <v>44831743.424028702</v>
+        <v>15634584.4277387</v>
       </c>
     </row>
     <row r="407" spans="1:20" x14ac:dyDescent="0.2">
@@ -29013,45 +29013,45 @@
         <v>33</v>
       </c>
       <c r="F407" s="1">
-        <v>400358200</v>
+        <v>426420260</v>
       </c>
       <c r="G407" s="1">
-        <v>21.857230000000001</v>
+        <v>22.126519999999999</v>
       </c>
       <c r="H407" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I407" s="1">
-        <v>13474713.6152706</v>
+        <v>24968174.299711499</v>
       </c>
       <c r="J407" s="1">
-        <v>11128507.828471201</v>
+        <v>17757117.171477601</v>
       </c>
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
       <c r="M407" s="1">
-        <v>14474272.4120417</v>
+        <v>26081697.007410999</v>
       </c>
       <c r="N407" s="1">
-        <v>26.318998000000001</v>
+        <v>31.506945000000002</v>
       </c>
       <c r="O407" s="1">
-        <v>25.737926000000002</v>
+        <v>30.968243000000001</v>
       </c>
       <c r="P407" s="1">
-        <v>14007998.8386687</v>
+        <v>24467208.832944602</v>
       </c>
       <c r="Q407" s="1">
-        <v>25.682959</v>
+        <v>29.857863999999999</v>
       </c>
       <c r="R407" s="1">
-        <v>13495470.8131634</v>
+        <v>21026874.526911099</v>
       </c>
       <c r="S407" s="1">
-        <v>8750721259.7860012</v>
+        <v>9435196411.2952003</v>
       </c>
       <c r="T407" s="1">
-        <v>15634584.4277387</v>
+        <v>24368570.3424576</v>
       </c>
     </row>
     <row r="408" spans="1:20" x14ac:dyDescent="0.2">
@@ -29068,48 +29068,48 @@
         <v>1261</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F408" s="1">
-        <v>426420260</v>
+        <v>872449460</v>
       </c>
       <c r="G408" s="1">
-        <v>22.126519999999999</v>
+        <v>15.96209</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I408" s="1">
-        <v>24968174.299711499</v>
+        <v>24832046.338409901</v>
       </c>
       <c r="J408" s="1">
-        <v>17757117.171477601</v>
+        <v>40125244.333477803</v>
       </c>
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
       <c r="M408" s="1">
-        <v>26081697.007410999</v>
+        <v>26472831.105801702</v>
       </c>
       <c r="N408" s="1">
-        <v>31.506945000000002</v>
+        <v>33.487938</v>
       </c>
       <c r="O408" s="1">
-        <v>30.968243000000001</v>
+        <v>34.264533999999998</v>
       </c>
       <c r="P408" s="1">
-        <v>24467208.832944602</v>
+        <v>24753278.145286199</v>
       </c>
       <c r="Q408" s="1">
-        <v>29.857863999999999</v>
+        <v>29.297643999999998</v>
       </c>
       <c r="R408" s="1">
-        <v>21026874.526911099</v>
+        <v>23301246.154633</v>
       </c>
       <c r="S408" s="1">
-        <v>9435196411.2952003</v>
+        <v>13926116800.971399</v>
       </c>
       <c r="T408" s="1">
-        <v>24368570.3424576</v>
+        <v>27002858.879889101</v>
       </c>
     </row>
     <row r="409" spans="1:20" x14ac:dyDescent="0.2">
@@ -29129,45 +29129,45 @@
         <v>23</v>
       </c>
       <c r="F409" s="1">
-        <v>872449460</v>
+        <v>328484300</v>
       </c>
       <c r="G409" s="1">
-        <v>15.96209</v>
+        <v>27.37678</v>
       </c>
       <c r="H409" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I409" s="1">
-        <v>24832046.338409901</v>
+        <v>17266361.125909999</v>
       </c>
       <c r="J409" s="1">
-        <v>40125244.333477803</v>
+        <v>16288827.045006</v>
       </c>
       <c r="K409" s="1"/>
       <c r="L409" s="1"/>
       <c r="M409" s="1">
-        <v>26472831.105801702</v>
+        <v>19974005.971097998</v>
       </c>
       <c r="N409" s="1">
-        <v>33.487938</v>
+        <v>21.345896</v>
       </c>
       <c r="O409" s="1">
-        <v>34.264533999999998</v>
+        <v>22.572852999999999</v>
       </c>
       <c r="P409" s="1">
-        <v>24753278.145286199</v>
+        <v>17217316.463284001</v>
       </c>
       <c r="Q409" s="1">
-        <v>29.297643999999998</v>
+        <v>24.030272</v>
       </c>
       <c r="R409" s="1">
-        <v>23301246.154633</v>
+        <v>16151907.1030418</v>
       </c>
       <c r="S409" s="1">
-        <v>13926116800.971399</v>
+        <v>8992842414.5540009</v>
       </c>
       <c r="T409" s="1">
-        <v>27002858.879889101</v>
+        <v>18688683.570456099</v>
       </c>
     </row>
     <row r="410" spans="1:20" x14ac:dyDescent="0.2">
@@ -29184,48 +29184,48 @@
         <v>1267</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F410" s="1">
-        <v>328484300</v>
+        <v>3360857809</v>
       </c>
       <c r="G410" s="1">
-        <v>27.37678</v>
+        <v>5.266</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I410" s="1">
-        <v>17266361.125909999</v>
+        <v>33115052.517871</v>
       </c>
       <c r="J410" s="1">
-        <v>16288827.045006</v>
+        <v>23426247.862714302</v>
       </c>
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
       <c r="M410" s="1">
-        <v>19974005.971097998</v>
+        <v>36543854.455460303</v>
       </c>
       <c r="N410" s="1">
-        <v>21.345896</v>
+        <v>19.250917000000001</v>
       </c>
       <c r="O410" s="1">
-        <v>22.572852999999999</v>
+        <v>18.171399999999998</v>
       </c>
       <c r="P410" s="1">
-        <v>17217316.463284001</v>
+        <v>34397180.502714999</v>
       </c>
       <c r="Q410" s="1">
-        <v>24.030272</v>
+        <v>18.071439999999999</v>
       </c>
       <c r="R410" s="1">
-        <v>16151907.1030418</v>
+        <v>29619815.890799999</v>
       </c>
       <c r="S410" s="1">
-        <v>8992842414.5540009</v>
+        <v>17698277222.194</v>
       </c>
       <c r="T410" s="1">
-        <v>18688683.570456099</v>
+        <v>34236742.579240501</v>
       </c>
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.2">
@@ -29242,48 +29242,48 @@
         <v>1270</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F411" s="1">
-        <v>3360857809</v>
+        <v>785180327</v>
       </c>
       <c r="G411" s="1">
-        <v>5.266</v>
+        <v>57.84</v>
       </c>
       <c r="H411" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I411" s="1">
-        <v>33115052.517871</v>
+        <v>104348172.695628</v>
       </c>
       <c r="J411" s="1">
-        <v>23426247.862714302</v>
+        <v>91411528.871333301</v>
       </c>
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
       <c r="M411" s="1">
-        <v>36543854.455460303</v>
+        <v>124195967.867835</v>
       </c>
       <c r="N411" s="1">
-        <v>19.250917000000001</v>
+        <v>36.184869999999997</v>
       </c>
       <c r="O411" s="1">
-        <v>18.171399999999998</v>
+        <v>36.531387000000002</v>
       </c>
       <c r="P411" s="1">
-        <v>34397180.502714999</v>
+        <v>116251191.62445</v>
       </c>
       <c r="Q411" s="1">
-        <v>18.071439999999999</v>
+        <v>36.147930000000002</v>
       </c>
       <c r="R411" s="1">
-        <v>29619815.890799999</v>
+        <v>100043168.428258</v>
       </c>
       <c r="S411" s="1">
-        <v>17698277222.194</v>
+        <v>45414830113.68</v>
       </c>
       <c r="T411" s="1">
-        <v>34236742.579240501</v>
+        <v>115846321.784514</v>
       </c>
     </row>
     <row r="412" spans="1:20" x14ac:dyDescent="0.2">
@@ -29303,45 +29303,45 @@
         <v>57</v>
       </c>
       <c r="F412" s="1">
-        <v>785180327</v>
+        <v>147454887</v>
       </c>
       <c r="G412" s="1">
-        <v>57.84</v>
+        <v>53.9</v>
       </c>
       <c r="H412" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I412" s="1">
-        <v>104348172.695628</v>
+        <v>17035743.151647002</v>
       </c>
       <c r="J412" s="1">
-        <v>91411528.871333301</v>
+        <v>6502487.2766666701</v>
       </c>
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
       <c r="M412" s="1">
-        <v>124195967.867835</v>
+        <v>15558955.9822441</v>
       </c>
       <c r="N412" s="1">
-        <v>36.184869999999997</v>
+        <v>32.254657999999999</v>
       </c>
       <c r="O412" s="1">
-        <v>36.531387000000002</v>
+        <v>21.918814000000001</v>
       </c>
       <c r="P412" s="1">
-        <v>116251191.62445</v>
+        <v>13303806.6437</v>
       </c>
       <c r="Q412" s="1">
-        <v>36.147930000000002</v>
+        <v>30.129709999999999</v>
       </c>
       <c r="R412" s="1">
-        <v>100043168.428258</v>
+        <v>10432574.269318201</v>
       </c>
       <c r="S412" s="1">
-        <v>45414830113.68</v>
+        <v>7947818409.3000002</v>
       </c>
       <c r="T412" s="1">
-        <v>115846321.784514</v>
+        <v>12070938.177823899</v>
       </c>
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.2">
@@ -29358,48 +29358,48 @@
         <v>1276</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F413" s="1">
-        <v>147454887</v>
+        <v>34250000</v>
       </c>
       <c r="G413" s="1">
-        <v>53.9</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="H413" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I413" s="1">
-        <v>17035743.151647002</v>
+        <v>5891058.57137255</v>
       </c>
       <c r="J413" s="1">
-        <v>6502487.2766666701</v>
+        <v>4732456.1533333296</v>
       </c>
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
       <c r="M413" s="1">
-        <v>15558955.9822441</v>
+        <v>7209593.42755906</v>
       </c>
       <c r="N413" s="1">
-        <v>32.254657999999999</v>
+        <v>30.527471999999999</v>
       </c>
       <c r="O413" s="1">
-        <v>21.918814000000001</v>
+        <v>30.550304000000001</v>
       </c>
       <c r="P413" s="1">
-        <v>13303806.6437</v>
+        <v>7564302.7000000002</v>
       </c>
       <c r="Q413" s="1">
-        <v>30.129709999999999</v>
+        <v>27.917221000000001</v>
       </c>
       <c r="R413" s="1">
-        <v>10432574.269318201</v>
+        <v>7759200.0166666703</v>
       </c>
       <c r="S413" s="1">
-        <v>7947818409.3000002</v>
+        <v>9124200000</v>
       </c>
       <c r="T413" s="1">
-        <v>12070938.177823899</v>
+        <v>8973683.7525480594</v>
       </c>
     </row>
     <row r="414" spans="1:20" x14ac:dyDescent="0.2">
@@ -29416,48 +29416,48 @@
         <v>1279</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F414" s="1">
-        <v>34250000</v>
+        <v>59626810</v>
       </c>
       <c r="G414" s="1">
-        <v>266.39999999999998</v>
+        <v>248.2816</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I414" s="1">
-        <v>5891058.57137255</v>
+        <v>41431340.438041002</v>
       </c>
       <c r="J414" s="1">
-        <v>4732456.1533333296</v>
+        <v>25556153.049169701</v>
       </c>
       <c r="K414" s="1"/>
       <c r="L414" s="1"/>
       <c r="M414" s="1">
-        <v>7209593.42755906</v>
+        <v>40015506.725442603</v>
       </c>
       <c r="N414" s="1">
-        <v>30.527471999999999</v>
+        <v>22.237932000000001</v>
       </c>
       <c r="O414" s="1">
-        <v>30.550304000000001</v>
+        <v>22.666466</v>
       </c>
       <c r="P414" s="1">
-        <v>7564302.7000000002</v>
+        <v>39501826.0684622</v>
       </c>
       <c r="Q414" s="1">
-        <v>27.917221000000001</v>
+        <v>20.502766000000001</v>
       </c>
       <c r="R414" s="1">
-        <v>7759200.0166666703</v>
+        <v>33328557.5656965</v>
       </c>
       <c r="S414" s="1">
-        <v>9124200000</v>
+        <v>14804239789.695999</v>
       </c>
       <c r="T414" s="1">
-        <v>8973683.7525480594</v>
+        <v>38582495.051692598</v>
       </c>
     </row>
     <row r="415" spans="1:20" x14ac:dyDescent="0.2">
@@ -29474,48 +29474,48 @@
         <v>1282</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F415" s="1">
-        <v>59626810</v>
+        <v>375456307</v>
       </c>
       <c r="G415" s="1">
-        <v>248.2816</v>
+        <v>15.460990000000001</v>
       </c>
       <c r="H415" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I415" s="1">
-        <v>41431340.438041002</v>
+        <v>3439882.6768565802</v>
       </c>
       <c r="J415" s="1">
-        <v>25556153.049169701</v>
+        <v>2695590.02453508</v>
       </c>
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
       <c r="M415" s="1">
-        <v>40015506.725442603</v>
+        <v>4204066.5163302002</v>
       </c>
       <c r="N415" s="1">
-        <v>22.237932000000001</v>
+        <v>21.770164000000001</v>
       </c>
       <c r="O415" s="1">
-        <v>22.666466</v>
+        <v>22.335861000000001</v>
       </c>
       <c r="P415" s="1">
-        <v>39501826.0684622</v>
+        <v>3678446.64557957</v>
       </c>
       <c r="Q415" s="1">
-        <v>20.502766000000001</v>
+        <v>20.267899</v>
       </c>
       <c r="R415" s="1">
-        <v>33328557.5656965</v>
+        <v>2975175.1797958598</v>
       </c>
       <c r="S415" s="1">
-        <v>14804239789.695999</v>
+        <v>5804926207.9639301</v>
       </c>
       <c r="T415" s="1">
-        <v>38582495.051692598</v>
+        <v>3443509.2637952501</v>
       </c>
     </row>
     <row r="416" spans="1:20" x14ac:dyDescent="0.2">
@@ -29532,48 +29532,48 @@
         <v>1285</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="F416" s="1">
-        <v>375456307</v>
+        <v>99322310</v>
       </c>
       <c r="G416" s="1">
-        <v>15.460990000000001</v>
+        <v>46.651330000000002</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="I416" s="1">
-        <v>3439882.6768565802</v>
+        <v>10689669.706458099</v>
       </c>
       <c r="J416" s="1">
-        <v>2695590.02453508</v>
+        <v>26719993.046978999</v>
       </c>
       <c r="K416" s="1"/>
       <c r="L416" s="1"/>
       <c r="M416" s="1">
-        <v>4204066.5163302002</v>
+        <v>15071789.377522999</v>
       </c>
       <c r="N416" s="1">
-        <v>21.770164000000001</v>
+        <v>95.207849999999993</v>
       </c>
       <c r="O416" s="1">
-        <v>22.335861000000001</v>
+        <v>104.892494</v>
       </c>
       <c r="P416" s="1">
-        <v>3678446.64557957</v>
+        <v>17107237.2792418</v>
       </c>
       <c r="Q416" s="1">
-        <v>20.267899</v>
+        <v>81.380570000000006</v>
       </c>
       <c r="R416" s="1">
-        <v>2975175.1797958598</v>
+        <v>22909135.050354499</v>
       </c>
       <c r="S416" s="1">
-        <v>5804926207.9639301</v>
+        <v>4633517860.1723003</v>
       </c>
       <c r="T416" s="1">
-        <v>3443509.2637952501</v>
+        <v>26613107.059258301</v>
       </c>
     </row>
     <row r="417" spans="1:20" x14ac:dyDescent="0.2">
@@ -29590,48 +29590,48 @@
         <v>1288</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F417" s="1">
-        <v>99322310</v>
+        <v>168073514</v>
       </c>
       <c r="G417" s="1">
-        <v>46.651330000000002</v>
+        <v>52.1</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I417" s="1">
-        <v>10689669.706458099</v>
+        <v>11627810.4193529</v>
       </c>
       <c r="J417" s="1">
-        <v>26719993.046978999</v>
+        <v>13882143.5416667</v>
       </c>
       <c r="K417" s="1"/>
       <c r="L417" s="1"/>
       <c r="M417" s="1">
-        <v>15071789.377522999</v>
+        <v>15559448.0900394</v>
       </c>
       <c r="N417" s="1">
-        <v>95.207849999999993</v>
+        <v>31.367329999999999</v>
       </c>
       <c r="O417" s="1">
-        <v>104.892494</v>
+        <v>22.745940000000001</v>
       </c>
       <c r="P417" s="1">
-        <v>17107237.2792418</v>
+        <v>14256864.60345</v>
       </c>
       <c r="Q417" s="1">
-        <v>81.380570000000006</v>
+        <v>27.899162</v>
       </c>
       <c r="R417" s="1">
-        <v>22909135.050354499</v>
+        <v>14817652.849924199</v>
       </c>
       <c r="S417" s="1">
-        <v>4633517860.1723003</v>
+        <v>8756630079.3999996</v>
       </c>
       <c r="T417" s="1">
-        <v>26613107.059258301</v>
+        <v>17181456.131436199</v>
       </c>
     </row>
     <row r="418" spans="1:20" x14ac:dyDescent="0.2">
@@ -29648,48 +29648,48 @@
         <v>1291</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F418" s="1">
-        <v>168073514</v>
+        <v>73776050</v>
       </c>
       <c r="G418" s="1">
-        <v>52.1</v>
+        <v>84.715670000000003</v>
       </c>
       <c r="H418" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I418" s="1">
-        <v>11627810.4193529</v>
+        <v>12412144.9851138</v>
       </c>
       <c r="J418" s="1">
-        <v>13882143.5416667</v>
+        <v>12397995.1090874</v>
       </c>
       <c r="K418" s="1"/>
       <c r="L418" s="1"/>
       <c r="M418" s="1">
-        <v>15559448.0900394</v>
+        <v>11814500.012325101</v>
       </c>
       <c r="N418" s="1">
-        <v>31.367329999999999</v>
+        <v>36.305732999999996</v>
       </c>
       <c r="O418" s="1">
-        <v>22.745940000000001</v>
+        <v>36.869320000000002</v>
       </c>
       <c r="P418" s="1">
-        <v>14256864.60345</v>
+        <v>11036161.049402701</v>
       </c>
       <c r="Q418" s="1">
-        <v>27.899162</v>
+        <v>34.190910000000002</v>
       </c>
       <c r="R418" s="1">
-        <v>14817652.849924199</v>
+        <v>10091771.4063484</v>
       </c>
       <c r="S418" s="1">
-        <v>8756630079.3999996</v>
+        <v>6249987505.7034998</v>
       </c>
       <c r="T418" s="1">
-        <v>17181456.131436199</v>
+        <v>11692442.410412099</v>
       </c>
     </row>
     <row r="419" spans="1:20" x14ac:dyDescent="0.2">
@@ -29706,48 +29706,48 @@
         <v>1294</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F419" s="1">
-        <v>73776050</v>
+        <v>700651000</v>
       </c>
       <c r="G419" s="1">
-        <v>84.715670000000003</v>
+        <v>4.9961950000000002</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I419" s="1">
-        <v>12412144.9851138</v>
+        <v>18362493.7751997</v>
       </c>
       <c r="J419" s="1">
-        <v>12397995.1090874</v>
+        <v>12233019.293589801</v>
       </c>
       <c r="K419" s="1"/>
       <c r="L419" s="1"/>
       <c r="M419" s="1">
-        <v>11814500.012325101</v>
+        <v>20635415.816171899</v>
       </c>
       <c r="N419" s="1">
-        <v>36.305732999999996</v>
+        <v>42.301639999999999</v>
       </c>
       <c r="O419" s="1">
-        <v>36.869320000000002</v>
+        <v>41.606327</v>
       </c>
       <c r="P419" s="1">
-        <v>11036161.049402701</v>
+        <v>17903661.609644301</v>
       </c>
       <c r="Q419" s="1">
-        <v>34.190910000000002</v>
+        <v>40.523159999999997</v>
       </c>
       <c r="R419" s="1">
-        <v>10091771.4063484</v>
+        <v>16148252.058298601</v>
       </c>
       <c r="S419" s="1">
-        <v>6249987505.7034998</v>
+        <v>3500589022.9450002</v>
       </c>
       <c r="T419" s="1">
-        <v>11692442.410412099</v>
+        <v>18728886.693936501</v>
       </c>
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.2">
